--- a/orange_analysis/results.xlsx
+++ b/orange_analysis/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>Rule_expected</t>
   </si>
@@ -48,16 +48,347 @@
   </si>
   <si>
     <t>Metal Raiders</t>
+  </si>
+  <si>
+    <t>Spell Ruler</t>
+  </si>
+  <si>
+    <t>Pharaoh's Servant</t>
+  </si>
+  <si>
+    <t>Labyrinth of Nightmare</t>
+  </si>
+  <si>
+    <t>Legacy of Darkness</t>
+  </si>
+  <si>
+    <t>Pharaonic Guardian</t>
+  </si>
+  <si>
+    <t>Magician's Force</t>
+  </si>
+  <si>
+    <t>Dark Crisis</t>
+  </si>
+  <si>
+    <t>Invasion of Chaos</t>
+  </si>
+  <si>
+    <t>Ancient Sancturay</t>
+  </si>
+  <si>
+    <t>Soul of the Duelist</t>
+  </si>
+  <si>
+    <t>Rise of Destiny</t>
+  </si>
+  <si>
+    <t>Flaming Eternity</t>
+  </si>
+  <si>
+    <t>The Lost Millennium</t>
+  </si>
+  <si>
+    <t>Cybernetic Revolution</t>
+  </si>
+  <si>
+    <t>Elemental Energy</t>
+  </si>
+  <si>
+    <t>Shadow of Infinity</t>
+  </si>
+  <si>
+    <t>Enemy of Justice</t>
+  </si>
+  <si>
+    <t>Power of the Duelist</t>
+  </si>
+  <si>
+    <t>Cyberdark Impact</t>
+  </si>
+  <si>
+    <t>Strike of Neos</t>
+  </si>
+  <si>
+    <t>Force of the Breaker</t>
+  </si>
+  <si>
+    <t>Tactical Evolution</t>
+  </si>
+  <si>
+    <t>Gladiator's Assault</t>
+  </si>
+  <si>
+    <t>Phantom Darkness</t>
+  </si>
+  <si>
+    <t>Light of Destruction</t>
+  </si>
+  <si>
+    <t>The Duelist Genesis</t>
+  </si>
+  <si>
+    <t>Crossroads of Chaos</t>
+  </si>
+  <si>
+    <t>Crimson Crisis</t>
+  </si>
+  <si>
+    <t>Raging Battle</t>
+  </si>
+  <si>
+    <t>Ancient Prophecy</t>
+  </si>
+  <si>
+    <t>Stardust Overdrive</t>
+  </si>
+  <si>
+    <t>Absolute Powerforce</t>
+  </si>
+  <si>
+    <t>The Shining Darkness</t>
+  </si>
+  <si>
+    <t>Duelist Revolution</t>
+  </si>
+  <si>
+    <t>Strastrike Blast</t>
+  </si>
+  <si>
+    <t>Strom of Rgnarok</t>
+  </si>
+  <si>
+    <t>Extreme Victory</t>
+  </si>
+  <si>
+    <t>Generation Force</t>
+  </si>
+  <si>
+    <t>Photon Shockwave</t>
+  </si>
+  <si>
+    <t>Order of Chaos</t>
+  </si>
+  <si>
+    <t>Galactic Overlord</t>
+  </si>
+  <si>
+    <t>Return of the Duelist</t>
+  </si>
+  <si>
+    <t>Abyss Rising</t>
+  </si>
+  <si>
+    <t>Cosmo Blazer</t>
+  </si>
+  <si>
+    <t>Lord of the Tachyon Galaxy</t>
+  </si>
+  <si>
+    <t>Judgment of the Light</t>
+  </si>
+  <si>
+    <t>Legace of the Valiant</t>
+  </si>
+  <si>
+    <t>Shadow Specters</t>
+  </si>
+  <si>
+    <t>Dragons of Legends</t>
+  </si>
+  <si>
+    <t>Primal Origin</t>
+  </si>
+  <si>
+    <t>Duelist Alliance</t>
+  </si>
+  <si>
+    <t>The New Challengers</t>
+  </si>
+  <si>
+    <t>Secrets of Eternity</t>
+  </si>
+  <si>
+    <t>World Superstars</t>
+  </si>
+  <si>
+    <t>Crossed Souls</t>
+  </si>
+  <si>
+    <t>Clash of Rebellions</t>
+  </si>
+  <si>
+    <t>Dimension of Chaos</t>
+  </si>
+  <si>
+    <t>Breakers of Shadow</t>
+  </si>
+  <si>
+    <t>Millennium Pack</t>
+  </si>
+  <si>
+    <t>Shining Victories</t>
+  </si>
+  <si>
+    <t>The Dark Illusion</t>
+  </si>
+  <si>
+    <t>Invasion: Vengeance</t>
+  </si>
+  <si>
+    <t>Raging Tempest</t>
+  </si>
+  <si>
+    <t>Maximum Crisis</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Flavour_total</t>
+  </si>
+  <si>
+    <t>Rule_total</t>
+  </si>
+  <si>
+    <t>Cards_total</t>
+  </si>
+  <si>
+    <t>Battle of Legend: Light's Revenge</t>
+  </si>
+  <si>
+    <t>Code of the Duelist</t>
+  </si>
+  <si>
+    <t>Legendary Duelists</t>
+  </si>
+  <si>
+    <t>Flavour_percent_increase</t>
+  </si>
+  <si>
+    <t>Circuit Break</t>
+  </si>
+  <si>
+    <t>Rule_percent_increase</t>
+  </si>
+  <si>
+    <t>Extreme Force</t>
+  </si>
+  <si>
+    <t>Flames of destruction</t>
+  </si>
+  <si>
+    <t>Soul Fusion</t>
+  </si>
+  <si>
+    <t>Savage Strike</t>
+  </si>
+  <si>
+    <t>Dark Neostorm</t>
+  </si>
+  <si>
+    <t>Rising Rampage</t>
+  </si>
+  <si>
+    <t>Chaos Impact</t>
+  </si>
+  <si>
+    <t>Ignition Assault</t>
+  </si>
+  <si>
+    <t>Number Hunters</t>
+  </si>
+  <si>
+    <t>Hearthstone</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Naxxramas</t>
+  </si>
+  <si>
+    <t>Goblins vs Gnomes</t>
+  </si>
+  <si>
+    <t>Blackrock Mountain</t>
+  </si>
+  <si>
+    <t>The Grand Tournament</t>
+  </si>
+  <si>
+    <t>The League of Explorers</t>
+  </si>
+  <si>
+    <t>Whispers of the Old Gods</t>
+  </si>
+  <si>
+    <t>One Night in Karazhan</t>
+  </si>
+  <si>
+    <t>Mean Streets of Gadgetzan</t>
+  </si>
+  <si>
+    <t>Hall of Fame</t>
+  </si>
+  <si>
+    <t>Journey to Un'Goro</t>
+  </si>
+  <si>
+    <t>Knights of the Frozen Throne</t>
+  </si>
+  <si>
+    <t>Kobolds and Catacombs</t>
+  </si>
+  <si>
+    <t>The Witchwood</t>
+  </si>
+  <si>
+    <t>The Boomsday Project</t>
+  </si>
+  <si>
+    <t>Rastakhan's Rumble</t>
+  </si>
+  <si>
+    <t>Rise of Shadows</t>
+  </si>
+  <si>
+    <t>Saviors of Uldum</t>
+  </si>
+  <si>
+    <t>Descent of Dragons</t>
+  </si>
+  <si>
+    <t>Galakrond's Awakening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,14 +411,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -98,6 +439,3118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Evolution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de la variété cumulée attendue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flavor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$16:$V$16</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Whispers of the Old Gods</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>One Night in Karazhan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Streets of Gadgetzan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hall of Fame</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Journey to Un'Goro</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Knights of the Frozen Throne</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kobolds and Catacombs</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Witchwood</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Boomsday Project</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Rastakhan's Rumble</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Rise of Shadows</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Saviors of Uldum</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Descent of Dragons</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Galakrond's Awakening</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$22:$V$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.335575322203013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.80718895720986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.711612573710369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.70099960864691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.352430037344376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.258571627564535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.968041708952711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.034372740599238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.811832129425113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.642687998726444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.361384726616649</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.480448928422206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.001479182005724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.388189096505016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.613714604103251</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.847199835499055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.751351494769821</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.723160806320052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.943711486544757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.00937920787483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Règles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$16:$V$16</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Whispers of the Old Gods</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>One Night in Karazhan</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Mean Streets of Gadgetzan</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hall of Fame</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Journey to Un'Goro</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Knights of the Frozen Throne</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Kobolds and Catacombs</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Witchwood</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Boomsday Project</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Rastakhan's Rumble</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Rise of Shadows</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Saviors of Uldum</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Descent of Dragons</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Galakrond's Awakening</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$23:$V$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.36058268742389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.63487627805104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.1742397779519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.32885209066964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.75986329692321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.00866667296054</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.59189222359637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.74955392124465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.98840667277173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.98818953390671</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.93844585217562</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.99981118359563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.19596310527459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.05340671997581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.81150458351823</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.2929864146597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.66306656722335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.15587738262698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.74287926135023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.85711318599363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1832743344"/>
+        <c:axId val="-1832672464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1832743344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1832672464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1832672464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1832743344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Evolution de la variété cumulée</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> attendue</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flavour</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$4:$CC$4</c:f>
+              <c:strCache>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>Legend of Blue Eyes White Dragon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metal Raiders</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spell Ruler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pharaoh's Servant</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Labyrinth of Nightmare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Legacy of Darkness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pharaonic Guardian</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Magician's Force</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dark Crisis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Invasion of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ancient Sancturay</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Soul of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rise of Destiny</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Flaming Eternity</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Lost Millennium</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cybernetic Revolution</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Elemental Energy</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Shadow of Infinity</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Enemy of Justice</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Power of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Cyberdark Impact</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Strike of Neos</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Force of the Breaker</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Tactical Evolution</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Gladiator's Assault</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Phantom Darkness</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Light of Destruction</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Duelist Genesis</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Crossroads of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Crimson Crisis</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Raging Battle</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Ancient Prophecy</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Stardust Overdrive</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Absolute Powerforce</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>The Shining Darkness</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Duelist Revolution</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Strastrike Blast</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Strom of Rgnarok</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Extreme Victory</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Generation Force</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Photon Shockwave</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Order of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Galactic Overlord</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Return of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Abyss Rising</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Cosmo Blazer</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Lord of the Tachyon Galaxy</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Number Hunters</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Judgment of the Light</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Shadow Specters</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Legace of the Valiant</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Dragons of Legends</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Primal Origin</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Duelist Alliance</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>The New Challengers</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Secrets of Eternity</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>World Superstars</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Crossed Souls</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Clash of Rebellions</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Dimension of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Breakers of Shadow</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Millennium Pack</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Shining Victories</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>The Dark Illusion</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Invasion: Vengeance</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Raging Tempest</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Maximum Crisis</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Battle of Legend: Light's Revenge</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Code of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Legendary Duelists</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Circuit Break</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Extreme Force</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Flames of destruction</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Cybernetic Revolution</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Soul Fusion</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Savage Strike</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Dark Neostorm</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Rising Rampage</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Chaos Impact</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Ignition Assault</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$10:$CC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0254197038381534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0644411790282788</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.742141632346346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.507185525931433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.053486178593488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.170773584022157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.560765356065374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.383784012790116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.669802506739558</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.48546282814273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.924956128712893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.34683402048293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.864370271433387</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.465078009503401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.6713343783656</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.014277400322427</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.014277400322427</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.284528988496476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.56570658972376</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.528914913115898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.002524131995158</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.003416051428075</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.458071982357836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.612597024110811</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.697106390379773</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.687518256475897</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6641053713618</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.6641053713618</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.652287438875646</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.652287438875646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.671240726825147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.848955673833984</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.924768825631986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.924768825631986</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.2759621023433</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2759621023433</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.2759621023433</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.2759621023433</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.358910609604634</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.588579863580932</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.588579863580932</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.01335649350794</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.0956360611946</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.55898820659529</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.55898820659529</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.55898820659529</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.53825107977997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.58217811185116</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.75193044812262</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.73163928102375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.73163928102375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.76040368273534</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.11672549618592</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.29510938276945</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.96761663518934</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.96761663518934</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.12325657623346</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.69965950975649</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.77658756084563</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.81248731802056</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.81248731802056</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.8755906178995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.37774125863211</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.45712208816178</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.45712208816178</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.7037378113635</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.7037378113635</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.64375622949979</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.64375622949979</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.70039311349008</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.71956938129779</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.75769893705501</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.76617217166773</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.76617217166773</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14.8167885994858</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14.8167885994858</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.82838355211373</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.73071837420925</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.62056632424391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Règles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$4:$CC$4</c:f>
+              <c:strCache>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>Legend of Blue Eyes White Dragon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Metal Raiders</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spell Ruler</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pharaoh's Servant</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Labyrinth of Nightmare</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Legacy of Darkness</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pharaonic Guardian</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Magician's Force</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dark Crisis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Invasion of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ancient Sancturay</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Soul of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rise of Destiny</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Flaming Eternity</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Lost Millennium</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cybernetic Revolution</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Elemental Energy</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Shadow of Infinity</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Enemy of Justice</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Power of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Cyberdark Impact</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Strike of Neos</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Force of the Breaker</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Tactical Evolution</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Gladiator's Assault</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Phantom Darkness</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Light of Destruction</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>The Duelist Genesis</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Crossroads of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Crimson Crisis</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Raging Battle</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Ancient Prophecy</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Stardust Overdrive</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Absolute Powerforce</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>The Shining Darkness</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Duelist Revolution</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Strastrike Blast</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Strom of Rgnarok</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Extreme Victory</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Generation Force</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Photon Shockwave</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Order of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Galactic Overlord</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Return of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Abyss Rising</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Cosmo Blazer</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Lord of the Tachyon Galaxy</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Number Hunters</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Judgment of the Light</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Shadow Specters</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Legace of the Valiant</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Dragons of Legends</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Primal Origin</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Duelist Alliance</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>The New Challengers</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Secrets of Eternity</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>World Superstars</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Crossed Souls</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Clash of Rebellions</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Dimension of Chaos</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Breakers of Shadow</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Millennium Pack</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Shining Victories</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>The Dark Illusion</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Invasion: Vengeance</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Raging Tempest</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Maximum Crisis</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Battle of Legend: Light's Revenge</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Code of the Duelist</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Legendary Duelists</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Circuit Break</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Extreme Force</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Flames of destruction</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Cybernetic Revolution</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Soul Fusion</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Savage Strike</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Dark Neostorm</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Rising Rampage</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Chaos Impact</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Ignition Assault</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$11:$CC$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.71741585935706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.35119959880579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.153883288105248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.703008487882144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.493037686946664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.246509469776853</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.372117002479356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.391506493628227</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.020776798226507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.187923866837266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.27041239577622</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.13074431836824</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.274161874364338</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.282129516364136</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.476165033300063</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.797214137409014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.059677638578406</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.161850930105046</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.352136968452825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.664749745738476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.926744562084337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.67881029044399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.732240360324894</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.592572282916918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.153414603281746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.178723583751648</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.950474074699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.870797654701135</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.761125405998229</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.57365147659155</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.568964628356368</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.298533485187207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.031851820606192</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.833129455435113</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.464274499327431</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.077609519926127</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.873262936872848</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.704536400406823</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.631421567938219</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.498315078059463</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.398953895473909</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.143051981833778</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.125241958540144</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.201637584773365</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.251786860889652</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.531123015705617</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.550807778293333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.594395466880385</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.612205490174034</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.597207575821471</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.734532229111892</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.843267108167765</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.89201032981353</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.076203465455591</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.203217052628602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.363038577447824</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.557074094383751</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.708927977203174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.765170156025178</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.901557439668565</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.954518824725937</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.007948894606855</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.010292318724438</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.063253703781825</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.233386294718385</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.35243223989164</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.432577344712981</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.53193852729855</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.560059616709565</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.662232908236205</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.922821670111517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.195127552574717</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.52929983174215</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.796450181146681</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.13624667819633</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.35793459971973</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.47229369665781</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.63680206971217</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.79521754006083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1832896688"/>
+        <c:axId val="-1832092128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1832896688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1832092128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1832092128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1832896688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4535</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4537</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,82 +3816,3768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:CC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="84" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3">
         <v>37323</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>37433</v>
       </c>
+      <c r="D1" s="3">
+        <v>37515</v>
+      </c>
+      <c r="E1" s="3">
+        <v>37549</v>
+      </c>
+      <c r="F1" s="3">
+        <v>37681</v>
+      </c>
+      <c r="G1" s="3">
+        <v>37778</v>
+      </c>
+      <c r="H1" s="3">
+        <v>37820</v>
+      </c>
+      <c r="I1" s="3">
+        <v>37904</v>
+      </c>
+      <c r="J1" s="3">
+        <v>37956</v>
+      </c>
+      <c r="K1" s="3">
+        <v>38047</v>
+      </c>
+      <c r="L1" s="3">
+        <v>38139</v>
+      </c>
+      <c r="M1" s="3">
+        <v>38261</v>
+      </c>
+      <c r="N1" s="3">
+        <v>38322</v>
+      </c>
+      <c r="O1" s="3">
+        <v>38412</v>
+      </c>
+      <c r="P1" s="3">
+        <v>38504</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>38581</v>
+      </c>
+      <c r="R1" s="3">
+        <v>38672</v>
+      </c>
+      <c r="S1" s="3">
+        <v>38766</v>
+      </c>
+      <c r="T1" s="3">
+        <v>38854</v>
+      </c>
+      <c r="U1" s="3">
+        <v>38945</v>
+      </c>
+      <c r="V1" s="3">
+        <v>39036</v>
+      </c>
+      <c r="W1" s="3">
+        <v>39141</v>
+      </c>
+      <c r="X1" s="3">
+        <v>39218</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>39309</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>39400</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>39491</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>39581</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>39693</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>39770</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>39875</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>39945</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>40057</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>40134</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>40225</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>40309</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>40407</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>40498</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>40582</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>40673</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>40771</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>40862</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>40932</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>41037</v>
+      </c>
+      <c r="AS1" s="3">
+        <v>41149</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>41222</v>
+      </c>
+      <c r="AU1" s="3">
+        <v>41299</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>41411</v>
+      </c>
+      <c r="AW1" s="3">
+        <v>41467</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>41495</v>
+      </c>
+      <c r="AY1" s="3">
+        <v>41586</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>41663</v>
+      </c>
+      <c r="BA1" s="3">
+        <v>41754</v>
+      </c>
+      <c r="BB1" s="3">
+        <v>41775</v>
+      </c>
+      <c r="BC1" s="3">
+        <v>41866</v>
+      </c>
+      <c r="BD1" s="3">
+        <v>41950</v>
+      </c>
+      <c r="BE1" s="3">
+        <v>42020</v>
+      </c>
+      <c r="BF1" s="3">
+        <v>42111</v>
+      </c>
+      <c r="BG1" s="3">
+        <v>42139</v>
+      </c>
+      <c r="BH1" s="3">
+        <v>42223</v>
+      </c>
+      <c r="BI1" s="3">
+        <v>42308</v>
+      </c>
+      <c r="BJ1" s="3">
+        <v>42384</v>
+      </c>
+      <c r="BK1" s="3">
+        <v>42475</v>
+      </c>
+      <c r="BL1" s="3">
+        <v>42496</v>
+      </c>
+      <c r="BM1" s="3">
+        <v>42587</v>
+      </c>
+      <c r="BN1" s="3">
+        <v>42678</v>
+      </c>
+      <c r="BO1" s="3">
+        <v>42776</v>
+      </c>
+      <c r="BP1" s="3">
+        <v>42860</v>
+      </c>
+      <c r="BQ1" s="3">
+        <v>42923</v>
+      </c>
+      <c r="BR1" s="3">
+        <v>42951</v>
+      </c>
+      <c r="BS1" s="3">
+        <v>42986</v>
+      </c>
+      <c r="BT1" s="3">
+        <v>43028</v>
+      </c>
+      <c r="BU1" s="3">
+        <v>43133</v>
+      </c>
+      <c r="BV1" s="3">
+        <v>43224</v>
+      </c>
+      <c r="BW1" s="3">
+        <v>43308</v>
+      </c>
+      <c r="BX1" s="3">
+        <v>43392</v>
+      </c>
+      <c r="BY1" s="3">
+        <v>43497</v>
+      </c>
+      <c r="BZ1" s="3">
+        <v>43588</v>
+      </c>
+      <c r="CA1" s="3">
+        <v>43672</v>
+      </c>
+      <c r="CB1" s="3">
+        <v>43763</v>
+      </c>
+      <c r="CC1" s="3">
+        <v>43861</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>448.471</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>448.35700000000003</v>
       </c>
+      <c r="D2" s="2">
+        <v>448.76</v>
+      </c>
+      <c r="E2" s="2">
+        <v>456.28399999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>459.71499999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <v>462.16500000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>462.69099999999997</v>
+      </c>
+      <c r="I2" s="2">
+        <v>464.44</v>
+      </c>
+      <c r="J2" s="2">
+        <v>468.13099999999997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>464.92899999999997</v>
+      </c>
+      <c r="L2" s="2">
+        <v>468.58699999999999</v>
+      </c>
+      <c r="M2" s="2">
+        <v>470.55799999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>472.45</v>
+      </c>
+      <c r="O2" s="2">
+        <v>474.77100000000002</v>
+      </c>
+      <c r="P2" s="2">
+        <v>477.46499999999997</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>478.39</v>
+      </c>
+      <c r="R2" s="2">
+        <v>479.928</v>
+      </c>
+      <c r="S2" s="2">
+        <v>479.928</v>
+      </c>
+      <c r="T2" s="2">
+        <v>481.14</v>
+      </c>
+      <c r="U2" s="2">
+        <v>482.40100000000001</v>
+      </c>
+      <c r="V2" s="2">
+        <v>482.23599999999999</v>
+      </c>
+      <c r="W2" s="2">
+        <v>484.36</v>
+      </c>
+      <c r="X2" s="2">
+        <v>484.36399999999998</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>486.40300000000002</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>487.096</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>487.47500000000002</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>487.43200000000002</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>487.327</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>487.327</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>487.274</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>487.274</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>487.35899999999998</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>488.15600000000001</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>488.49599999999998</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>488.49599999999998</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>490.07100000000003</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>490.07100000000003</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>490.07100000000003</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>490.07100000000003</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>490.44299999999998</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>491.47300000000001</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>491.47300000000001</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>493.37799999999999</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>493.74700000000001</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>495.82499999999999</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>495.82499999999999</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>495.82499999999999</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>495.73200000000003</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>495.92899999999997</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>501.17500000000001</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>501.084</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>501.084</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>501.21300000000002</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>502.81099999999998</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>503.61099999999999</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>506.62700000000001</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>506.62700000000001</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>507.32499999999999</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>509.91</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>510.255</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>510.416</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>510.416</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>510.69900000000001</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>512.95100000000002</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>513.30700000000002</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>513.30700000000002</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>514.41300000000001</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>514.41300000000001</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>514.14400000000001</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>514.14400000000001</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>514.39800000000002</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>514.48400000000004</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>514.65499999999997</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>514.69299999999998</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>514.69299999999998</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>514.91999999999996</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>514.91999999999996</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>514.97199999999998</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>514.53399999999999</v>
+      </c>
+      <c r="CC2">
+        <v>514.04</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>213.363</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>236.23</v>
       </c>
+      <c r="D3" s="2">
+        <v>233.315</v>
+      </c>
+      <c r="E3" s="2">
+        <v>232.89400000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>231.93199999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>231.48400000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>230.958</v>
+      </c>
+      <c r="I3" s="2">
+        <v>231.226</v>
+      </c>
+      <c r="J3" s="2">
+        <v>233.40100000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>232.61</v>
+      </c>
+      <c r="L3" s="2">
+        <v>230.833</v>
+      </c>
+      <c r="M3" s="2">
+        <v>231.00899999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>230.71100000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>231.017</v>
+      </c>
+      <c r="P3" s="2">
+        <v>231.03399999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>231.44800000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>232.13300000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>232.69300000000001</v>
+      </c>
+      <c r="T3" s="2">
+        <v>232.911</v>
+      </c>
+      <c r="U3" s="2">
+        <v>233.31700000000001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>233.98400000000001</v>
+      </c>
+      <c r="W3" s="2">
+        <v>234.54300000000001</v>
+      </c>
+      <c r="X3" s="2">
+        <v>234.01400000000001</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>234.12799999999999</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>233.83</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>232.893</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>232.947</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>232.46</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>232.29</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>232.05600000000001</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>231.65600000000001</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>231.64599999999999</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>231.06899999999999</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>230.5</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>230.07599999999999</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>229.28899999999999</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>228.464</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>228.02799999999999</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>227.66800000000001</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>227.512</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>227.22800000000001</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>227.01599999999999</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>226.47</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>226.43199999999999</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>226.595</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>226.702</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>227.298</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>227.34</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>227.43299999999999</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>227.471</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>227.43899999999999</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>227.732</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>227.964</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>228.06800000000001</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>228.46100000000001</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>228.732</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>229.07300000000001</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>229.48699999999999</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>229.81100000000001</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>229.93100000000001</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>230.22200000000001</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>230.33500000000001</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>230.44900000000001</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>230.45400000000001</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>230.56700000000001</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>230.93</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>231.184</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>231.35499999999999</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>231.56700000000001</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>231.62700000000001</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>231.845</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>232.40100000000001</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>232.982</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>233.69499999999999</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>234.26499999999999</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>234.99</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>235.46299999999999</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>235.70699999999999</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>236.05799999999999</v>
+      </c>
+      <c r="CC3">
+        <v>236.39599999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BV4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BX4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>597</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>732</v>
       </c>
+      <c r="D5" s="2">
+        <v>822</v>
+      </c>
+      <c r="E5" s="2">
+        <v>977</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1086</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1135</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1158</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1247</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1279</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1337</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1364</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1388</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1420</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1457</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1473</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1512</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1512</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1547</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1563</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1565</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1616</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1617</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1658</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1671</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1686</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1689</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1704</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1704</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1707</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1707</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1714</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1728</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>1745</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>1745</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>1780</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>1780</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>1780</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>1780</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>1793</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>1819</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>1819</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>1862</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>1868</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>1894</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>1894</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>1894</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>1895</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>1901</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>1980</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>1981</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>1981</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>1985</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>2011</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>2024</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>2067</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>2067</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>2086</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>2155</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>2192</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>2223</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>2223</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>2225</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>2253</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>2266</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>2266</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>2303</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>2303</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>2325</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>2325</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>2332</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>2337</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>2339</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>2340</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>2340</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>2354</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>2354</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>2360</v>
+      </c>
+      <c r="CB5" s="2">
+        <v>2373</v>
+      </c>
+      <c r="CC5">
+        <v>2387</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>255</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>411</v>
+      </c>
+      <c r="D6" s="2">
+        <v>495</v>
+      </c>
+      <c r="E6" s="2">
+        <v>563</v>
+      </c>
+      <c r="F6" s="2">
+        <v>612</v>
+      </c>
+      <c r="G6" s="2">
+        <v>675</v>
+      </c>
+      <c r="H6" s="2">
+        <v>739</v>
+      </c>
+      <c r="I6" s="2">
+        <v>800</v>
+      </c>
+      <c r="J6" s="2">
+        <v>864</v>
+      </c>
+      <c r="K6" s="2">
+        <v>888</v>
+      </c>
+      <c r="L6" s="2">
+        <v>910</v>
+      </c>
+      <c r="M6" s="2">
+        <v>946</v>
+      </c>
+      <c r="N6" s="2">
+        <v>954</v>
+      </c>
+      <c r="O6" s="2">
+        <v>978</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1007</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1032</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1060</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1107</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1140</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1167</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1188</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1223</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1242</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1264</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1298</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1323</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1348</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1380</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1399</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1428</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>1448</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1469</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1487</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1511</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1529</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1554</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>1575</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>1605</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>1626</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1650</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>1675</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>1703</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>1729</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>1760</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>1843</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>1930</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>1971</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>2008</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>2069</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>2103</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>2157</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>2203</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>2273</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>2335</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>2394</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>2454</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>2500</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>2548</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>2612</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>2661</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>2702</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>2737</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>2803</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>2879</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>2954</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>3043</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>3061</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>3118</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>3141</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>3193</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>3302</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>3392</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>3526</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>3646</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>3784</v>
+      </c>
+      <c r="BZ6" s="2">
+        <v>3941</v>
+      </c>
+      <c r="CA6" s="2">
+        <v>4079</v>
+      </c>
+      <c r="CB6" s="2">
+        <v>4204</v>
+      </c>
+      <c r="CC6">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2">
+        <v>149</v>
+      </c>
+      <c r="D7" s="2">
+        <v>187</v>
+      </c>
+      <c r="E7" s="2">
+        <v>231</v>
+      </c>
+      <c r="F7" s="2">
+        <v>267</v>
+      </c>
+      <c r="G7" s="2">
+        <v>278</v>
+      </c>
+      <c r="H7" s="2">
+        <v>284</v>
+      </c>
+      <c r="I7" s="2">
+        <v>293</v>
+      </c>
+      <c r="J7" s="2">
+        <v>301</v>
+      </c>
+      <c r="K7" s="2">
+        <v>311</v>
+      </c>
+      <c r="L7" s="2">
+        <v>322</v>
+      </c>
+      <c r="M7" s="2">
+        <v>328</v>
+      </c>
+      <c r="N7" s="2">
+        <v>332</v>
+      </c>
+      <c r="O7" s="2">
+        <v>336</v>
+      </c>
+      <c r="P7" s="2">
+        <v>345</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>349</v>
+      </c>
+      <c r="R7" s="2">
+        <v>360</v>
+      </c>
+      <c r="S7" s="2">
+        <v>360</v>
+      </c>
+      <c r="T7" s="2">
+        <v>369</v>
+      </c>
+      <c r="U7" s="2">
+        <v>371</v>
+      </c>
+      <c r="V7" s="2">
+        <v>372</v>
+      </c>
+      <c r="W7" s="2">
+        <v>384</v>
+      </c>
+      <c r="X7" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>394</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>397</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>398</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>401</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>401</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>403</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>406</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>409</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>417</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>421</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>424</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>424</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>429</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>430</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>432</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>432</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>432</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>433</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>434</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>452</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>453</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>453</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>454</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>458</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>460</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>465</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>465</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>467</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>479</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>484</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>488</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>488</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>489</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>493</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>494</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>494</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>499</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>499</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>504</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>504</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>506</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>508</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>510</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>511</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>511</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>512</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>512</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>513</v>
+      </c>
+      <c r="CB7" s="2">
+        <v>519</v>
+      </c>
+      <c r="CC7" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
+        <v>175</v>
+      </c>
+      <c r="D8" s="2">
+        <v>270</v>
+      </c>
+      <c r="E8" s="2">
+        <v>364</v>
+      </c>
+      <c r="F8" s="2">
+        <v>452</v>
+      </c>
+      <c r="G8" s="2">
+        <v>550</v>
+      </c>
+      <c r="H8" s="2">
+        <v>652</v>
+      </c>
+      <c r="I8" s="2">
+        <v>752</v>
+      </c>
+      <c r="J8" s="2">
+        <v>862</v>
+      </c>
+      <c r="K8" s="2">
+        <v>968</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1075</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1158</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1225</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1288</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1351</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1414</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1485</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1565</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1638</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1701</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1772</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1878</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1960</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>2050</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>2170</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>2301</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>2414</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>2549</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>2656</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>2768</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>2876</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>2992</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>3126</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>3257</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>3368</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>3534</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>3704</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>3873</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>3994</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>4158</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>4303</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>4405</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>4563</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>4698</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>4842</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>4946</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>5115</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>5179</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>5278</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>5393</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>5493</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>5579</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>5676</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>5808</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>5922</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>6025</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>6139</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>6239</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>6390</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>6540</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>6653</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>6732</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>6830</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>7003</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>7184</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>7335</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>7515</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>7571</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>7674</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>7707</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>7811</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>7963</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>8098</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>8285</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>8464</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>8655</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>8863</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>9029</v>
+      </c>
+      <c r="CB8" s="2">
+        <v>9225</v>
+      </c>
+      <c r="CC8" s="2">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2">
+        <f>SUM(B7:B8)</f>
+        <v>126</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:BN9" si="0">SUM(C7:C8)</f>
+        <v>324</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>457</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>719</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>1163</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>1279</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>1397</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>1486</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>1557</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>1624</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>1696</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>1763</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>1845</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="0"/>
+        <v>1925</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="0"/>
+        <v>2072</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="0"/>
+        <v>2144</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>2262</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="0"/>
+        <v>2345</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="0"/>
+        <v>2441</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="0"/>
+        <v>2564</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="0"/>
+        <v>2698</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="0"/>
+        <v>2812</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="0"/>
+        <v>2950</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="0"/>
+        <v>3057</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="0"/>
+        <v>3170</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="0"/>
+        <v>3278</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="0"/>
+        <v>3395</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="0"/>
+        <v>3532</v>
+      </c>
+      <c r="AI9" s="2">
+        <f t="shared" si="0"/>
+        <v>3666</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f t="shared" si="0"/>
+        <v>3777</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="0"/>
+        <v>3951</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="0"/>
+        <v>4121</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="0"/>
+        <v>4290</v>
+      </c>
+      <c r="AN9" s="2">
+        <f t="shared" si="0"/>
+        <v>4411</v>
+      </c>
+      <c r="AO9" s="2">
+        <f t="shared" si="0"/>
+        <v>4579</v>
+      </c>
+      <c r="AP9" s="2">
+        <f t="shared" si="0"/>
+        <v>4727</v>
+      </c>
+      <c r="AQ9" s="2">
+        <f t="shared" si="0"/>
+        <v>4829</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="0"/>
+        <v>4992</v>
+      </c>
+      <c r="AS9" s="2">
+        <f t="shared" si="0"/>
+        <v>5128</v>
+      </c>
+      <c r="AT9" s="2">
+        <f t="shared" si="0"/>
+        <v>5274</v>
+      </c>
+      <c r="AU9" s="2">
+        <f t="shared" si="0"/>
+        <v>5378</v>
+      </c>
+      <c r="AV9" s="2">
+        <f t="shared" si="0"/>
+        <v>5547</v>
+      </c>
+      <c r="AW9" s="2">
+        <f t="shared" si="0"/>
+        <v>5612</v>
+      </c>
+      <c r="AX9" s="2">
+        <f t="shared" si="0"/>
+        <v>5712</v>
+      </c>
+      <c r="AY9" s="2">
+        <f t="shared" si="0"/>
+        <v>5845</v>
+      </c>
+      <c r="AZ9" s="2">
+        <f t="shared" si="0"/>
+        <v>5946</v>
+      </c>
+      <c r="BA9" s="2">
+        <f t="shared" si="0"/>
+        <v>6032</v>
+      </c>
+      <c r="BB9" s="2">
+        <f t="shared" si="0"/>
+        <v>6130</v>
+      </c>
+      <c r="BC9" s="2">
+        <f t="shared" si="0"/>
+        <v>6266</v>
+      </c>
+      <c r="BD9" s="2">
+        <f t="shared" si="0"/>
+        <v>6382</v>
+      </c>
+      <c r="BE9" s="2">
+        <f t="shared" si="0"/>
+        <v>6490</v>
+      </c>
+      <c r="BF9" s="2">
+        <f t="shared" si="0"/>
+        <v>6604</v>
+      </c>
+      <c r="BG9" s="2">
+        <f t="shared" si="0"/>
+        <v>6706</v>
+      </c>
+      <c r="BH9" s="2">
+        <f t="shared" si="0"/>
+        <v>6869</v>
+      </c>
+      <c r="BI9" s="2">
+        <f t="shared" si="0"/>
+        <v>7024</v>
+      </c>
+      <c r="BJ9" s="2">
+        <f t="shared" si="0"/>
+        <v>7141</v>
+      </c>
+      <c r="BK9" s="2">
+        <f t="shared" si="0"/>
+        <v>7220</v>
+      </c>
+      <c r="BL9" s="2">
+        <f t="shared" si="0"/>
+        <v>7319</v>
+      </c>
+      <c r="BM9" s="2">
+        <f t="shared" si="0"/>
+        <v>7496</v>
+      </c>
+      <c r="BN9" s="2">
+        <f t="shared" si="0"/>
+        <v>7678</v>
+      </c>
+      <c r="BO9" s="2">
+        <f t="shared" ref="BO9" si="1">SUM(BO7:BO8)</f>
+        <v>7829</v>
+      </c>
+      <c r="BP9" s="2">
+        <f>SUM(BP7:BP8)</f>
+        <v>8014</v>
+      </c>
+      <c r="BQ9" s="2">
+        <f>SUM(BQ7:BQ8)</f>
+        <v>8070</v>
+      </c>
+      <c r="BR9" s="2">
+        <f>SUM(BR7:BR8)</f>
+        <v>8178</v>
+      </c>
+      <c r="BS9" s="2">
+        <f>SUM(BS7:BS8)</f>
+        <v>8211</v>
+      </c>
+      <c r="BT9" s="2">
+        <f>SUM(BT7:BT8)</f>
+        <v>8317</v>
+      </c>
+      <c r="BU9" s="2">
+        <f>SUM(BU7:BU8)</f>
+        <v>8471</v>
+      </c>
+      <c r="BV9" s="2">
+        <f t="shared" ref="BQ9:BW9" si="2">SUM(BV7:BV8)</f>
+        <v>8608</v>
+      </c>
+      <c r="BW9" s="2">
+        <f t="shared" si="2"/>
+        <v>8796</v>
+      </c>
+      <c r="BX9" s="2">
+        <f t="shared" ref="BX9" si="3">SUM(BX7:BX8)</f>
+        <v>8975</v>
+      </c>
+      <c r="BY9" s="2">
+        <f t="shared" ref="BY9" si="4">SUM(BY7:BY8)</f>
+        <v>9167</v>
+      </c>
+      <c r="BZ9" s="2">
+        <f t="shared" ref="BZ9" si="5">SUM(BZ7:BZ8)</f>
+        <v>9375</v>
+      </c>
+      <c r="CA9" s="2">
+        <f t="shared" ref="CA9" si="6">SUM(CA7:CA8)</f>
+        <v>9542</v>
+      </c>
+      <c r="CB9" s="2">
+        <f t="shared" ref="CB9" si="7">SUM(CB7:CB8)</f>
+        <v>9744</v>
+      </c>
+      <c r="CC9" s="2">
+        <f t="shared" ref="CC9" si="8">SUM(CC7:CC8)</f>
+        <v>9925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2">
+        <f>B2/$B$2*100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:BN10" si="9">C2/$B$2*100-100</f>
+        <v>-2.5419703838153396E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="9"/>
+        <v>6.4441179028278839E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="9"/>
+        <v>1.7421416323463461</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="9"/>
+        <v>2.5071855259314333</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="9"/>
+        <v>3.0534861785934879</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="9"/>
+        <v>3.1707735840221574</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="9"/>
+        <v>3.5607653560653745</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="9"/>
+        <v>4.383784012790116</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="9"/>
+        <v>3.6698025067395577</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="9"/>
+        <v>4.4854628281427296</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="9"/>
+        <v>4.9249561287128927</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="9"/>
+        <v>5.3468340204829303</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="9"/>
+        <v>5.864370271433387</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="9"/>
+        <v>6.4650780095034008</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="9"/>
+        <v>6.6713343783656001</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0142774003224275</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0142774003224275</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="9"/>
+        <v>7.2845289884964757</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5657065897237601</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5289149131158979</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.002524131995159</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.0034160514280757</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.4580719823578363</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6125970241108121</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6971063903797727</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6875182564758973</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6641053713617993</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6641053713617993</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6522874388756463</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6522874388756463</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6712407268251468</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.8489556738339843</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.9247688256319861</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="9"/>
+        <v>8.9247688256319861</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2759621023432999</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2759621023432999</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2759621023432999</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.2759621023432999</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.3589106096046351</v>
+      </c>
+      <c r="AP10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.5885798635809323</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f t="shared" si="9"/>
+        <v>9.5885798635809323</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="9"/>
+        <v>10.013356493507942</v>
+      </c>
+      <c r="AS10" s="2">
+        <f t="shared" si="9"/>
+        <v>10.095636061194597</v>
+      </c>
+      <c r="AT10" s="2">
+        <f t="shared" si="9"/>
+        <v>10.558988206595288</v>
+      </c>
+      <c r="AU10" s="2">
+        <f t="shared" si="9"/>
+        <v>10.558988206595288</v>
+      </c>
+      <c r="AV10" s="2">
+        <f t="shared" si="9"/>
+        <v>10.558988206595288</v>
+      </c>
+      <c r="AW10" s="2">
+        <f t="shared" si="9"/>
+        <v>10.538251079779968</v>
+      </c>
+      <c r="AX10" s="2">
+        <f t="shared" si="9"/>
+        <v>10.582178111851164</v>
+      </c>
+      <c r="AY10" s="2">
+        <f t="shared" si="9"/>
+        <v>11.751930448122621</v>
+      </c>
+      <c r="AZ10" s="2">
+        <f t="shared" si="9"/>
+        <v>11.731639281023746</v>
+      </c>
+      <c r="BA10" s="2">
+        <f t="shared" si="9"/>
+        <v>11.731639281023746</v>
+      </c>
+      <c r="BB10" s="2">
+        <f t="shared" si="9"/>
+        <v>11.760403682735344</v>
+      </c>
+      <c r="BC10" s="2">
+        <f t="shared" si="9"/>
+        <v>12.116725496185921</v>
+      </c>
+      <c r="BD10" s="2">
+        <f t="shared" si="9"/>
+        <v>12.295109382769454</v>
+      </c>
+      <c r="BE10" s="2">
+        <f t="shared" si="9"/>
+        <v>12.967616635189344</v>
+      </c>
+      <c r="BF10" s="2">
+        <f t="shared" si="9"/>
+        <v>12.967616635189344</v>
+      </c>
+      <c r="BG10" s="2">
+        <f t="shared" si="9"/>
+        <v>13.123256576233459</v>
+      </c>
+      <c r="BH10" s="2">
+        <f t="shared" si="9"/>
+        <v>13.699659509756486</v>
+      </c>
+      <c r="BI10" s="2">
+        <f t="shared" si="9"/>
+        <v>13.776587560845627</v>
+      </c>
+      <c r="BJ10" s="2">
+        <f t="shared" si="9"/>
+        <v>13.812487318020558</v>
+      </c>
+      <c r="BK10" s="2">
+        <f t="shared" si="9"/>
+        <v>13.812487318020558</v>
+      </c>
+      <c r="BL10" s="2">
+        <f t="shared" si="9"/>
+        <v>13.875590617899491</v>
+      </c>
+      <c r="BM10" s="2">
+        <f t="shared" si="9"/>
+        <v>14.377741258632113</v>
+      </c>
+      <c r="BN10" s="2">
+        <f t="shared" si="9"/>
+        <v>14.457122088161782</v>
+      </c>
+      <c r="BO10" s="2">
+        <f t="shared" ref="BO10:CC10" si="10">BO2/$B$2*100-100</f>
+        <v>14.457122088161782</v>
+      </c>
+      <c r="BP10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.703737811363496</v>
+      </c>
+      <c r="BQ10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.703737811363496</v>
+      </c>
+      <c r="BR10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.643756229499786</v>
+      </c>
+      <c r="BS10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.643756229499786</v>
+      </c>
+      <c r="BT10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.70039311349008</v>
+      </c>
+      <c r="BU10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.719569381297788</v>
+      </c>
+      <c r="BV10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.757698937055011</v>
+      </c>
+      <c r="BW10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.766172171667733</v>
+      </c>
+      <c r="BX10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.766172171667733</v>
+      </c>
+      <c r="BY10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.816788599485804</v>
+      </c>
+      <c r="BZ10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.816788599485804</v>
+      </c>
+      <c r="CA10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.828383552113735</v>
+      </c>
+      <c r="CB10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.730718374209246</v>
+      </c>
+      <c r="CC10" s="2">
+        <f t="shared" si="10"/>
+        <v>14.62056632424391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B3/$B$3*100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:BN11" si="11">C3/$B$3*100-100</f>
+        <v>10.717415859357061</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.3511995988057919</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.1538832881052485</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.7030084878821441</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.4930376869466642</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2465094697768535</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.3721170024793565</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.3915064936282278</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.0207767982265068</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.1879238668372665</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2704123957762192</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.1307443183682437</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2741618743643386</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2821295163641366</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.4761650333000631</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.7972141374090143</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.0596776385784068</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.1618509301050466</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.3521369684528253</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.6647497457384759</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.9267445620843375</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.678810290443991</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.7322403603248944</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.5925722829169189</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.1534146032817461</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="11"/>
+        <v>9.1787235837516477</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.9504740746990024</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.8707976547011356</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.7611254059982286</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.5736514765915501</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.568964628356369</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.2985334851872068</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.0318518206061924</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.8331294554351132</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.4642744993274306</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.0776095199261277</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.8732629368728482</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.7045364004068233</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.6314215679382187</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.4983150780594627</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.3989538954739089</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.1430519818337785</v>
+      </c>
+      <c r="AS11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.1252419585401441</v>
+      </c>
+      <c r="AT11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2016375847733656</v>
+      </c>
+      <c r="AU11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2517868608896521</v>
+      </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5311230157056173</v>
+      </c>
+      <c r="AW11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5508077782933327</v>
+      </c>
+      <c r="AX11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5943954668803855</v>
+      </c>
+      <c r="AY11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.6122054901740341</v>
+      </c>
+      <c r="AZ11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.5972075758214714</v>
+      </c>
+      <c r="BA11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.7345322291118919</v>
+      </c>
+      <c r="BB11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.8432671081677654</v>
+      </c>
+      <c r="BC11" s="2">
+        <f t="shared" si="11"/>
+        <v>6.8920103298135302</v>
+      </c>
+      <c r="BD11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.0762034654555919</v>
+      </c>
+      <c r="BE11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.2032170526286023</v>
+      </c>
+      <c r="BF11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.3630385774478242</v>
+      </c>
+      <c r="BG11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.5570740943837507</v>
+      </c>
+      <c r="BH11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.7089279772031745</v>
+      </c>
+      <c r="BI11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.765170156025178</v>
+      </c>
+      <c r="BJ11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.9015574396685651</v>
+      </c>
+      <c r="BK11" s="2">
+        <f t="shared" si="11"/>
+        <v>7.9545188247259375</v>
+      </c>
+      <c r="BL11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.0079488946068551</v>
+      </c>
+      <c r="BM11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.0102923187244386</v>
+      </c>
+      <c r="BN11" s="2">
+        <f t="shared" si="11"/>
+        <v>8.0632537037818253</v>
+      </c>
+      <c r="BO11" s="2">
+        <f t="shared" ref="BO11:CC11" si="12">BO3/$B$3*100-100</f>
+        <v>8.233386294718386</v>
+      </c>
+      <c r="BP11" s="2">
+        <f t="shared" si="12"/>
+        <v>8.3524322398916411</v>
+      </c>
+      <c r="BQ11" s="2">
+        <f t="shared" si="12"/>
+        <v>8.4325773447129819</v>
+      </c>
+      <c r="BR11" s="2">
+        <f t="shared" si="12"/>
+        <v>8.53193852729855</v>
+      </c>
+      <c r="BS11" s="2">
+        <f t="shared" si="12"/>
+        <v>8.5600596167095659</v>
+      </c>
+      <c r="BT11" s="2">
+        <f t="shared" si="12"/>
+        <v>8.6622329082362057</v>
+      </c>
+      <c r="BU11" s="2">
+        <f t="shared" si="12"/>
+        <v>8.9228216701115173</v>
+      </c>
+      <c r="BV11" s="2">
+        <f t="shared" si="12"/>
+        <v>9.1951275525747178</v>
+      </c>
+      <c r="BW11" s="2">
+        <f t="shared" si="12"/>
+        <v>9.5292998317421507</v>
+      </c>
+      <c r="BX11" s="2">
+        <f t="shared" si="12"/>
+        <v>9.7964501811466818</v>
+      </c>
+      <c r="BY11" s="2">
+        <f t="shared" si="12"/>
+        <v>10.136246678196329</v>
+      </c>
+      <c r="BZ11" s="2">
+        <f t="shared" si="12"/>
+        <v>10.357934599719727</v>
+      </c>
+      <c r="CA11" s="2">
+        <f t="shared" si="12"/>
+        <v>10.472293696657815</v>
+      </c>
+      <c r="CB11" s="2">
+        <f t="shared" si="12"/>
+        <v>10.636802069712175</v>
+      </c>
+      <c r="CC11" s="2">
+        <f t="shared" si="12"/>
+        <v>10.795217540060833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41709</v>
+      </c>
+      <c r="C13" s="1">
+        <v>41709</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41842</v>
+      </c>
+      <c r="E13" s="1">
+        <v>41981</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42096</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42240</v>
+      </c>
+      <c r="H13" s="1">
+        <v>42320</v>
+      </c>
+      <c r="I13" s="1">
+        <v>42486</v>
+      </c>
+      <c r="J13" s="1">
+        <v>42593</v>
+      </c>
+      <c r="K13" s="1">
+        <v>42705</v>
+      </c>
+      <c r="L13" s="1">
+        <v>42829</v>
+      </c>
+      <c r="M13" s="1">
+        <v>42831</v>
+      </c>
+      <c r="N13" s="1">
+        <v>42957</v>
+      </c>
+      <c r="O13" s="1">
+        <v>43076</v>
+      </c>
+      <c r="P13" s="1">
+        <v>43202</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>43319</v>
+      </c>
+      <c r="R13" s="1">
+        <v>43438</v>
+      </c>
+      <c r="S13" s="1">
+        <v>43564</v>
+      </c>
+      <c r="T13" s="1">
+        <v>43683</v>
+      </c>
+      <c r="U13" s="1">
+        <v>43809</v>
+      </c>
+      <c r="V13" s="1">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>301.51799999999997</v>
+      </c>
+      <c r="C14">
+        <v>305.54500000000002</v>
+      </c>
+      <c r="D14">
+        <v>306.96699999999998</v>
+      </c>
+      <c r="E14">
+        <v>309.69400000000002</v>
+      </c>
+      <c r="F14">
+        <v>309.66199999999998</v>
+      </c>
+      <c r="G14">
+        <v>308.61099999999999</v>
+      </c>
+      <c r="H14">
+        <v>308.32799999999997</v>
+      </c>
+      <c r="I14">
+        <v>307.452</v>
+      </c>
+      <c r="J14">
+        <v>307.65199999999999</v>
+      </c>
+      <c r="K14">
+        <v>306.98099999999999</v>
+      </c>
+      <c r="L14">
+        <v>306.471</v>
+      </c>
+      <c r="M14">
+        <v>308.63799999999998</v>
+      </c>
+      <c r="N14">
+        <v>308.99700000000001</v>
+      </c>
+      <c r="O14">
+        <v>310.56799999999998</v>
+      </c>
+      <c r="P14">
+        <v>311.73399999999998</v>
+      </c>
+      <c r="Q14">
+        <v>312.41399999999999</v>
+      </c>
+      <c r="R14">
+        <v>313.11799999999999</v>
+      </c>
+      <c r="S14">
+        <v>312.82900000000001</v>
+      </c>
+      <c r="T14">
+        <v>312.74400000000003</v>
+      </c>
+      <c r="U14">
+        <v>313.40899999999999</v>
+      </c>
+      <c r="V14">
+        <v>313.60700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>105.923</v>
+      </c>
+      <c r="C15">
+        <v>129.608</v>
+      </c>
+      <c r="D15">
+        <v>132.017</v>
+      </c>
+      <c r="E15">
+        <v>135.76599999999999</v>
+      </c>
+      <c r="F15">
+        <v>136.989</v>
+      </c>
+      <c r="G15">
+        <v>139.56399999999999</v>
+      </c>
+      <c r="H15">
+        <v>141.946</v>
+      </c>
+      <c r="I15">
+        <v>143.62299999999999</v>
+      </c>
+      <c r="J15">
+        <v>143.79</v>
+      </c>
+      <c r="K15">
+        <v>144.04300000000001</v>
+      </c>
+      <c r="L15">
+        <v>145.102</v>
+      </c>
+      <c r="M15">
+        <v>148.227</v>
+      </c>
+      <c r="N15">
+        <v>148.292</v>
+      </c>
+      <c r="O15">
+        <v>149.559</v>
+      </c>
+      <c r="P15">
+        <v>149.40799999999999</v>
+      </c>
+      <c r="Q15">
+        <v>150.21100000000001</v>
+      </c>
+      <c r="R15">
+        <v>150.721</v>
+      </c>
+      <c r="S15">
+        <v>151.113</v>
+      </c>
+      <c r="T15">
+        <v>151.63499999999999</v>
+      </c>
+      <c r="U15">
+        <v>153.316</v>
+      </c>
+      <c r="V15">
+        <v>153.43700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" t="s">
+        <v>108</v>
+      </c>
+      <c r="T16" t="s">
+        <v>109</v>
+      </c>
+      <c r="U16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>808</v>
+      </c>
+      <c r="C17">
+        <v>1771</v>
+      </c>
+      <c r="D17">
+        <v>1875</v>
+      </c>
+      <c r="E17">
+        <v>2324</v>
+      </c>
+      <c r="F17">
+        <v>2441</v>
+      </c>
+      <c r="G17">
+        <v>2757</v>
+      </c>
+      <c r="H17">
+        <v>2865</v>
+      </c>
+      <c r="I17">
+        <v>3181</v>
+      </c>
+      <c r="J17">
+        <v>3289</v>
+      </c>
+      <c r="K17">
+        <v>3634</v>
+      </c>
+      <c r="L17">
+        <v>3690</v>
+      </c>
+      <c r="M17">
+        <v>3952</v>
+      </c>
+      <c r="N17">
+        <v>4219</v>
+      </c>
+      <c r="O17">
+        <v>4501</v>
+      </c>
+      <c r="P17">
+        <v>4700</v>
+      </c>
+      <c r="Q17">
+        <v>4910</v>
+      </c>
+      <c r="R17">
+        <v>5111</v>
+      </c>
+      <c r="S17">
+        <v>5295</v>
+      </c>
+      <c r="T17">
+        <v>5507</v>
+      </c>
+      <c r="U17">
+        <v>5729</v>
+      </c>
+      <c r="V17">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>129</v>
+      </c>
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="D18">
+        <v>272</v>
+      </c>
+      <c r="E18">
+        <v>314</v>
+      </c>
+      <c r="F18">
+        <v>324</v>
+      </c>
+      <c r="G18">
+        <v>363</v>
+      </c>
+      <c r="H18">
+        <v>387</v>
+      </c>
+      <c r="I18">
+        <v>422</v>
+      </c>
+      <c r="J18">
+        <v>436</v>
+      </c>
+      <c r="K18">
+        <v>457</v>
+      </c>
+      <c r="L18">
+        <v>472</v>
+      </c>
+      <c r="M18">
+        <v>520</v>
+      </c>
+      <c r="N18">
+        <v>545</v>
+      </c>
+      <c r="O18">
+        <v>579</v>
+      </c>
+      <c r="P18">
+        <v>593</v>
+      </c>
+      <c r="Q18">
+        <v>617</v>
+      </c>
+      <c r="R18">
+        <v>647</v>
+      </c>
+      <c r="S18">
+        <v>675</v>
+      </c>
+      <c r="T18">
+        <v>722</v>
+      </c>
+      <c r="U18">
+        <v>751</v>
+      </c>
+      <c r="V18">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
+        <v>143</v>
+      </c>
+      <c r="C19">
+        <v>383</v>
+      </c>
+      <c r="D19">
+        <v>413</v>
+      </c>
+      <c r="E19">
+        <v>536</v>
+      </c>
+      <c r="F19">
+        <v>567</v>
+      </c>
+      <c r="G19">
+        <v>699</v>
+      </c>
+      <c r="H19">
+        <v>744</v>
+      </c>
+      <c r="I19">
+        <v>878</v>
+      </c>
+      <c r="J19">
+        <v>923</v>
+      </c>
+      <c r="K19">
+        <v>1055</v>
+      </c>
+      <c r="L19">
+        <v>1089</v>
+      </c>
+      <c r="M19">
+        <v>1224</v>
+      </c>
+      <c r="N19">
+        <v>1359</v>
+      </c>
+      <c r="O19">
+        <v>1494</v>
+      </c>
+      <c r="P19">
+        <v>1623</v>
+      </c>
+      <c r="Q19">
+        <v>1759</v>
+      </c>
+      <c r="R19">
+        <v>1894</v>
+      </c>
+      <c r="S19">
+        <v>2030</v>
+      </c>
+      <c r="T19">
+        <v>2165</v>
+      </c>
+      <c r="U19">
+        <v>2305</v>
+      </c>
+      <c r="V19">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>130</v>
+      </c>
+      <c r="C20">
+        <v>369</v>
+      </c>
+      <c r="D20">
+        <v>399</v>
+      </c>
+      <c r="E20">
+        <v>518</v>
+      </c>
+      <c r="F20">
+        <v>549</v>
+      </c>
+      <c r="G20">
+        <v>677</v>
+      </c>
+      <c r="H20">
+        <v>721</v>
+      </c>
+      <c r="I20">
+        <v>850</v>
+      </c>
+      <c r="J20">
+        <v>894</v>
+      </c>
+      <c r="K20">
+        <v>1025</v>
+      </c>
+      <c r="L20">
+        <v>1060</v>
+      </c>
+      <c r="M20">
+        <v>1194</v>
+      </c>
+      <c r="N20">
+        <v>1328</v>
+      </c>
+      <c r="O20">
+        <v>1462</v>
+      </c>
+      <c r="P20">
+        <v>1591</v>
+      </c>
+      <c r="Q20">
+        <v>1726</v>
+      </c>
+      <c r="R20">
+        <v>1861</v>
+      </c>
+      <c r="S20">
+        <v>1996</v>
+      </c>
+      <c r="T20">
+        <v>2131</v>
+      </c>
+      <c r="U20">
+        <v>2270</v>
+      </c>
+      <c r="V20">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <f>SUM(B19:B20)</f>
+        <v>273</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" si="13">SUM(C19:C20)</f>
+        <v>752</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="13"/>
+        <v>812</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="13"/>
+        <v>1054</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
+        <v>1116</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="13"/>
+        <v>1376</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="13"/>
+        <v>1465</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="13"/>
+        <v>1728</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="13"/>
+        <v>1817</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="13"/>
+        <v>2080</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="13"/>
+        <v>2149</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21" si="14">SUM(M19:M20)</f>
+        <v>2418</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21" si="15">SUM(N19:N20)</f>
+        <v>2687</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21" si="16">SUM(O19:O20)</f>
+        <v>2956</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21" si="17">SUM(P19:P20)</f>
+        <v>3214</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21" si="18">SUM(Q19:Q20)</f>
+        <v>3485</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21" si="19">SUM(R19:R20)</f>
+        <v>3755</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21" si="20">SUM(S19:S20)</f>
+        <v>4026</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21" si="21">SUM(T19:T20)</f>
+        <v>4296</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ref="U21:V21" si="22">SUM(U19:U20)</f>
+        <v>4575</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="22"/>
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22">
+        <f>B14/$B$14*100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>C14/$B$14*100-100</f>
+        <v>1.3355753222030131</v>
+      </c>
+      <c r="D22">
+        <f>D14/$B$14*100-100</f>
+        <v>1.8071889572098598</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:V22" si="23">E14/$B$14*100-100</f>
+        <v>2.7116125737103687</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="23"/>
+        <v>2.7009996086469101</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="23"/>
+        <v>2.3524300373443765</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="23"/>
+        <v>2.2585716275645353</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="23"/>
+        <v>1.9680417089527111</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="23"/>
+        <v>2.0343727405992382</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="23"/>
+        <v>1.8118321294251132</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="23"/>
+        <v>1.6426879987264442</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="23"/>
+        <v>2.3613847266166488</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="23"/>
+        <v>2.4804489284222058</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="23"/>
+        <v>3.0014791820057241</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="23"/>
+        <v>3.3881890965050161</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="23"/>
+        <v>3.6137146041032508</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="23"/>
+        <v>3.8471998354990546</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="23"/>
+        <v>3.7513514947698212</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="23"/>
+        <v>3.7231608063200525</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="23"/>
+        <v>3.9437114865447569</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="23"/>
+        <v>4.0093792078748294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <f>B15/$B$15*100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>C15/$B$15*100-100</f>
+        <v>22.360582687423886</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:V23" si="24">D15/$B$15*100-100</f>
+        <v>24.634876278051038</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="24"/>
+        <v>28.174239777951897</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="24"/>
+        <v>29.328852090669642</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="24"/>
+        <v>31.759863296923214</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="24"/>
+        <v>34.008666672960544</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="24"/>
+        <v>35.591892223596375</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="24"/>
+        <v>35.749553921244654</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="24"/>
+        <v>35.988406672771731</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="24"/>
+        <v>36.988189533906706</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="24"/>
+        <v>39.938445852175619</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="24"/>
+        <v>39.999811183595625</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="24"/>
+        <v>41.195963105274586</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="24"/>
+        <v>41.053406719975811</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="24"/>
+        <v>41.811504583518229</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="24"/>
+        <v>42.292986414659708</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="24"/>
+        <v>42.663066567223353</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="24"/>
+        <v>43.155877382626983</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="24"/>
+        <v>44.742879261350225</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="24"/>
+        <v>44.857113185993626</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/orange_analysis/results.xlsx
+++ b/orange_analysis/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>Rule_expected</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>Galakrond's Awakening</t>
+  </si>
+  <si>
+    <t>Hearthstone_lemmas</t>
   </si>
 </sst>
 </file>
@@ -956,6 +959,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>% d'augmentation du vocabulaire</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -989,6 +1048,7 @@
         <c:crossAx val="-1832743344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -999,7 +1059,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3492,16 +3552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4535</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>193220</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>820963</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>816429</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>166309</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3522,16 +3582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>4537</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>193223</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>820966</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>166309</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3816,11 +3876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC23"/>
+  <dimension ref="A1:CC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="84" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="84" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7575,6 +7635,11 @@
         <v>44.857113185993626</v>
       </c>
     </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/orange_analysis/results.xlsx
+++ b/orange_analysis/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>Rule_expected</t>
   </si>
@@ -363,9 +363,6 @@
   </si>
   <si>
     <t>Galakrond's Awakening</t>
-  </si>
-  <si>
-    <t>Hearthstone_lemmas</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2301,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2382,7 +2379,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-1832896688"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3552,16 +3549,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>820963</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>162981</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4535</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>816429</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>166309</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>196547</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3582,16 +3579,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>820966</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>162984</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4537</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>193222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>166309</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3876,11 +3873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC25"/>
+  <dimension ref="A1:CC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="84" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="84" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7635,11 +7632,6 @@
         <v>44.857113185993626</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/orange_analysis/results.xlsx
+++ b/orange_analysis/results.xlsx
@@ -417,8 +417,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,11 +436,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1239,19 +1251,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1768,19 +1768,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -2289,7 +2277,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-1989912848"/>
         <c:axId val="-1989910464"/>
@@ -2343,8 +2330,6 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="7"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6048,7 +6033,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" i="0" baseline="0"/>
-              <a:t> - Quantité de tokens</a:t>
+              <a:t> - Évolution du nombre de tokens</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR" i="1"/>
           </a:p>
@@ -6094,7 +6079,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Flavor</c:v>
+            <c:v>Ambiance/Contexte</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -10386,11 +10371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC27"/>
+  <dimension ref="A1:CD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A37" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A56" sqref="A56"/>
+      <selection pane="topRight" activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10399,7 +10384,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -10644,7 +10629,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10889,7 +10874,7 @@
         <v>514.04</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -11134,7 +11119,7 @@
         <v>236.39599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -11379,7 +11364,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -11624,7 +11609,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -11869,7 +11854,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>113</v>
       </c>
@@ -12114,7 +12099,7 @@
         <v>18881</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>112</v>
       </c>
@@ -12358,8 +12343,12 @@
       <c r="CC8">
         <v>535469</v>
       </c>
+      <c r="CD8">
+        <f>SUM(B7:CC8)</f>
+        <v>16810746</v>
+      </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -12604,7 +12593,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -12849,7 +12838,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
@@ -13174,7 +13163,7 @@
         <v>9925</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -13499,7 +13488,7 @@
         <v>14.62056632424391</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -13824,7 +13813,7 @@
         <v>10.795217540060833</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -13892,7 +13881,7 @@
         <v>43851</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -13959,8 +13948,9 @@
       <c r="V16">
         <v>313.60700000000003</v>
       </c>
+      <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -14027,8 +14017,9 @@
       <c r="V17">
         <v>153.43700000000001</v>
       </c>
+      <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -14095,8 +14086,9 @@
       <c r="V18" t="s">
         <v>111</v>
       </c>
+      <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -14163,8 +14155,9 @@
       <c r="V19">
         <v>5799</v>
       </c>
+      <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -14231,8 +14224,9 @@
       <c r="V20">
         <v>759</v>
       </c>
+      <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
@@ -14299,8 +14293,9 @@
       <c r="V21">
         <v>33191</v>
       </c>
+      <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
@@ -14367,8 +14362,13 @@
       <c r="V22">
         <v>28158</v>
       </c>
+      <c r="W22">
+        <f>SUM(B21:V22)</f>
+        <v>680265</v>
+      </c>
+      <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -14435,8 +14435,9 @@
       <c r="V23">
         <v>2340</v>
       </c>
+      <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
@@ -14503,8 +14504,9 @@
       <c r="V24">
         <v>2305</v>
       </c>
+      <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -14592,8 +14594,9 @@
         <f t="shared" si="10"/>
         <v>4645</v>
       </c>
+      <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
@@ -14681,8 +14684,9 @@
         <f t="shared" ref="V26" si="11">V16/$B$16*100-100</f>
         <v>4.0093792078748294</v>
       </c>
+      <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -14770,6 +14774,7 @@
         <f t="shared" ref="V27" si="12">V17/$B$17*100-100</f>
         <v>44.857113185993626</v>
       </c>
+      <c r="Y27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orange_analysis/results.xlsx
+++ b/orange_analysis/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
   <si>
     <t>Rule_expected</t>
   </si>
@@ -370,12 +370,15 @@
   <si>
     <t>Flavour_tokens</t>
   </si>
+  <si>
+    <t>HS_TEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,6 +402,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD19A66"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -417,7 +432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -429,24 +444,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -911,11 +940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1988795152"/>
-        <c:axId val="-2030370880"/>
+        <c:axId val="-908408432"/>
+        <c:axId val="-908407904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1988795152"/>
+        <c:axId val="-908408432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +968,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -958,7 +987,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030370880"/>
+        <c:crossAx val="-908407904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -966,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2030370880"/>
+        <c:axId val="-908407904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,7 +1101,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1988795152"/>
+        <c:crossAx val="-908408432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
@@ -2278,11 +2307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1989912848"/>
-        <c:axId val="-1989910464"/>
+        <c:axId val="-908368160"/>
+        <c:axId val="-908365088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1989912848"/>
+        <c:axId val="-908368160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2335,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2325,7 +2354,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989910464"/>
+        <c:crossAx val="-908365088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2333,7 +2362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1989910464"/>
+        <c:axId val="-908365088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2473,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1989912848"/>
+        <c:crossAx val="-908368160"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3673,11 +3702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1988928176"/>
-        <c:axId val="-1971057824"/>
+        <c:axId val="-907712768"/>
+        <c:axId val="-907709968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1988928176"/>
+        <c:axId val="-907712768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3720,7 +3749,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1971057824"/>
+        <c:crossAx val="-907709968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3730,7 +3759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1971057824"/>
+        <c:axId val="-907709968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1988928176"/>
+        <c:crossAx val="-907712768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4375,11 +4404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1897814800"/>
-        <c:axId val="-1940106912"/>
+        <c:axId val="-908343760"/>
+        <c:axId val="-908341696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1897814800"/>
+        <c:axId val="-908343760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +4451,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1940106912"/>
+        <c:crossAx val="-908341696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4430,7 +4459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1940106912"/>
+        <c:axId val="-908341696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4541,7 +4570,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1897814800"/>
+        <c:crossAx val="-908343760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5746,11 +5775,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1896604096"/>
-        <c:axId val="-1896461744"/>
+        <c:axId val="-908305136"/>
+        <c:axId val="-908302064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1896604096"/>
+        <c:axId val="-908305136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,7 +5822,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1896461744"/>
+        <c:crossAx val="-908302064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5802,7 +5831,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1896461744"/>
+        <c:axId val="-908302064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5942,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1896604096"/>
+        <c:crossAx val="-908305136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6410,11 +6439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1940404960"/>
-        <c:axId val="-1876822528"/>
+        <c:axId val="-908275856"/>
+        <c:axId val="-908273104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1940404960"/>
+        <c:axId val="-908275856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,7 +6486,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1876822528"/>
+        <c:crossAx val="-908273104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6465,7 +6494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1876822528"/>
+        <c:axId val="-908273104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,7 +6605,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1940404960"/>
+        <c:crossAx val="-908275856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6590,6 +6619,1383 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Evolution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de la variété attendue cumulée</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flavor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$35:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.986776994836674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.308908641520446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.866859075720129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.19436384756699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.735857166981376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.730484041818258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Règles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$36:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.17228896408447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.17509374355839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.71632817077886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.78806660135308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.11396530040787</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.12024420804934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-888304336"/>
+        <c:axId val="-885919200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-888304336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-885919200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-885919200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-888304336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Evolution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> des tokens cumulés</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flavor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1370.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3871.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4164.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5404.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5777.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6967.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7340.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Règles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$32:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>833.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2846.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3103.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4166.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4498.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5650.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6037.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-854930736"/>
+        <c:axId val="-770660320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-854930736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-770660320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-770660320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-854930736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Taille</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> du vocabulaire</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Flavor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>692.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1577.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1677.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2095.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2203.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2480.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2584.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Règles</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Classic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naxxramas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Goblins vs Gnomes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blackrock Mountain</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Grand Tournament</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The League of Explorers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>303.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-823748560"/>
+        <c:axId val="-823245792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-823748560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-823245792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-823245792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-823748560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6879,6 +8285,117 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -9923,20 +11440,1542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4535</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>193219</xdr:rowOff>
+      <xdr:colOff>21468</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>159352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>196547</xdr:rowOff>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>162680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9958,15 +12997,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4537</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>193222</xdr:rowOff>
+      <xdr:colOff>21470</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>159355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9988,15 +13027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>41123</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>200480</xdr:rowOff>
+      <xdr:colOff>58056</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>135467</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10018,15 +13057,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>189244</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>20376</xdr:rowOff>
+      <xdr:colOff>206177</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>189709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>795494</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>13956</xdr:rowOff>
+      <xdr:colOff>812427</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>183289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10048,15 +13087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>52294</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>10460</xdr:rowOff>
+      <xdr:colOff>69227</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>179793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10078,15 +13117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>223849</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>83427</xdr:rowOff>
+      <xdr:colOff>240782</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>49560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>410116</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>74961</xdr:rowOff>
+      <xdr:colOff>427049</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>41094</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10100,6 +13139,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558799</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>270933</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Graphique 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10371,11 +13500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD27"/>
+  <dimension ref="A1:CD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA4" sqref="BA4"/>
+      <selection pane="topRight" activeCell="B29" sqref="B29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12843,323 +15972,323 @@
         <v>74</v>
       </c>
       <c r="B11" s="2">
-        <f>SUM(B9:B10)</f>
+        <f t="shared" ref="B11:AG11" si="0">SUM(B9:B10)</f>
         <v>126</v>
       </c>
       <c r="C11" s="2">
-        <f>SUM(C9:C10)</f>
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(D9:D10)</f>
+        <f t="shared" si="0"/>
         <v>457</v>
       </c>
       <c r="E11" s="2">
-        <f>SUM(E9:E10)</f>
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="F11" s="2">
-        <f>SUM(F9:F10)</f>
+        <f t="shared" si="0"/>
         <v>719</v>
       </c>
       <c r="G11" s="2">
-        <f>SUM(G9:G10)</f>
+        <f t="shared" si="0"/>
         <v>828</v>
       </c>
       <c r="H11" s="2">
-        <f>SUM(H9:H10)</f>
+        <f t="shared" si="0"/>
         <v>936</v>
       </c>
       <c r="I11" s="2">
-        <f>SUM(I9:I10)</f>
+        <f t="shared" si="0"/>
         <v>1045</v>
       </c>
       <c r="J11" s="2">
-        <f>SUM(J9:J10)</f>
+        <f t="shared" si="0"/>
         <v>1163</v>
       </c>
       <c r="K11" s="2">
-        <f>SUM(K9:K10)</f>
+        <f t="shared" si="0"/>
         <v>1279</v>
       </c>
       <c r="L11" s="2">
-        <f>SUM(L9:L10)</f>
+        <f t="shared" si="0"/>
         <v>1397</v>
       </c>
       <c r="M11" s="2">
-        <f>SUM(M9:M10)</f>
+        <f t="shared" si="0"/>
         <v>1486</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(N9:N10)</f>
+        <f t="shared" si="0"/>
         <v>1557</v>
       </c>
       <c r="O11" s="2">
-        <f>SUM(O9:O10)</f>
+        <f t="shared" si="0"/>
         <v>1624</v>
       </c>
       <c r="P11" s="2">
-        <f>SUM(P9:P10)</f>
+        <f t="shared" si="0"/>
         <v>1696</v>
       </c>
       <c r="Q11" s="2">
-        <f>SUM(Q9:Q10)</f>
+        <f t="shared" si="0"/>
         <v>1763</v>
       </c>
       <c r="R11" s="2">
-        <f>SUM(R9:R10)</f>
+        <f t="shared" si="0"/>
         <v>1845</v>
       </c>
       <c r="S11" s="2">
-        <f>SUM(S9:S10)</f>
+        <f t="shared" si="0"/>
         <v>1925</v>
       </c>
       <c r="T11" s="2">
-        <f>SUM(T9:T10)</f>
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="U11" s="2">
-        <f>SUM(U9:U10)</f>
+        <f t="shared" si="0"/>
         <v>2072</v>
       </c>
       <c r="V11" s="2">
-        <f>SUM(V9:V10)</f>
+        <f t="shared" si="0"/>
         <v>2144</v>
       </c>
       <c r="W11" s="2">
-        <f>SUM(W9:W10)</f>
+        <f t="shared" si="0"/>
         <v>2262</v>
       </c>
       <c r="X11" s="2">
-        <f>SUM(X9:X10)</f>
+        <f t="shared" si="0"/>
         <v>2345</v>
       </c>
       <c r="Y11" s="2">
-        <f>SUM(Y9:Y10)</f>
+        <f t="shared" si="0"/>
         <v>2441</v>
       </c>
       <c r="Z11" s="2">
-        <f>SUM(Z9:Z10)</f>
+        <f t="shared" si="0"/>
         <v>2564</v>
       </c>
       <c r="AA11" s="2">
-        <f>SUM(AA9:AA10)</f>
+        <f t="shared" si="0"/>
         <v>2698</v>
       </c>
       <c r="AB11" s="2">
-        <f>SUM(AB9:AB10)</f>
+        <f t="shared" si="0"/>
         <v>2812</v>
       </c>
       <c r="AC11" s="2">
-        <f>SUM(AC9:AC10)</f>
+        <f t="shared" si="0"/>
         <v>2950</v>
       </c>
       <c r="AD11" s="2">
-        <f>SUM(AD9:AD10)</f>
+        <f t="shared" si="0"/>
         <v>3057</v>
       </c>
       <c r="AE11" s="2">
-        <f>SUM(AE9:AE10)</f>
+        <f t="shared" si="0"/>
         <v>3170</v>
       </c>
       <c r="AF11" s="2">
-        <f>SUM(AF9:AF10)</f>
+        <f t="shared" si="0"/>
         <v>3278</v>
       </c>
       <c r="AG11" s="2">
-        <f>SUM(AG9:AG10)</f>
+        <f t="shared" si="0"/>
         <v>3395</v>
       </c>
       <c r="AH11" s="2">
-        <f>SUM(AH9:AH10)</f>
+        <f t="shared" ref="AH11:BM11" si="1">SUM(AH9:AH10)</f>
         <v>3532</v>
       </c>
       <c r="AI11" s="2">
-        <f>SUM(AI9:AI10)</f>
+        <f t="shared" si="1"/>
         <v>3666</v>
       </c>
       <c r="AJ11" s="2">
-        <f>SUM(AJ9:AJ10)</f>
+        <f t="shared" si="1"/>
         <v>3777</v>
       </c>
       <c r="AK11" s="2">
-        <f>SUM(AK9:AK10)</f>
+        <f t="shared" si="1"/>
         <v>3951</v>
       </c>
       <c r="AL11" s="2">
-        <f>SUM(AL9:AL10)</f>
+        <f t="shared" si="1"/>
         <v>4121</v>
       </c>
       <c r="AM11" s="2">
-        <f>SUM(AM9:AM10)</f>
+        <f t="shared" si="1"/>
         <v>4290</v>
       </c>
       <c r="AN11" s="2">
-        <f>SUM(AN9:AN10)</f>
+        <f t="shared" si="1"/>
         <v>4411</v>
       </c>
       <c r="AO11" s="2">
-        <f>SUM(AO9:AO10)</f>
+        <f t="shared" si="1"/>
         <v>4579</v>
       </c>
       <c r="AP11" s="2">
-        <f>SUM(AP9:AP10)</f>
+        <f t="shared" si="1"/>
         <v>4727</v>
       </c>
       <c r="AQ11" s="2">
-        <f>SUM(AQ9:AQ10)</f>
+        <f t="shared" si="1"/>
         <v>4829</v>
       </c>
       <c r="AR11" s="2">
-        <f>SUM(AR9:AR10)</f>
+        <f t="shared" si="1"/>
         <v>4992</v>
       </c>
       <c r="AS11" s="2">
-        <f>SUM(AS9:AS10)</f>
+        <f t="shared" si="1"/>
         <v>5128</v>
       </c>
       <c r="AT11" s="2">
-        <f>SUM(AT9:AT10)</f>
+        <f t="shared" si="1"/>
         <v>5274</v>
       </c>
       <c r="AU11" s="2">
-        <f>SUM(AU9:AU10)</f>
+        <f t="shared" si="1"/>
         <v>5378</v>
       </c>
       <c r="AV11" s="2">
-        <f>SUM(AV9:AV10)</f>
+        <f t="shared" si="1"/>
         <v>5547</v>
       </c>
       <c r="AW11" s="2">
-        <f>SUM(AW9:AW10)</f>
+        <f t="shared" si="1"/>
         <v>5612</v>
       </c>
       <c r="AX11" s="2">
-        <f>SUM(AX9:AX10)</f>
+        <f t="shared" si="1"/>
         <v>5712</v>
       </c>
       <c r="AY11" s="2">
-        <f>SUM(AY9:AY10)</f>
+        <f t="shared" si="1"/>
         <v>5845</v>
       </c>
       <c r="AZ11" s="2">
-        <f>SUM(AZ9:AZ10)</f>
+        <f t="shared" si="1"/>
         <v>5946</v>
       </c>
       <c r="BA11" s="2">
-        <f>SUM(BA9:BA10)</f>
+        <f t="shared" si="1"/>
         <v>6032</v>
       </c>
       <c r="BB11" s="2">
-        <f>SUM(BB9:BB10)</f>
+        <f t="shared" si="1"/>
         <v>6130</v>
       </c>
       <c r="BC11" s="2">
-        <f>SUM(BC9:BC10)</f>
+        <f t="shared" si="1"/>
         <v>6266</v>
       </c>
       <c r="BD11" s="2">
-        <f>SUM(BD9:BD10)</f>
+        <f t="shared" si="1"/>
         <v>6382</v>
       </c>
       <c r="BE11" s="2">
-        <f>SUM(BE9:BE10)</f>
+        <f t="shared" si="1"/>
         <v>6490</v>
       </c>
       <c r="BF11" s="2">
-        <f>SUM(BF9:BF10)</f>
+        <f t="shared" si="1"/>
         <v>6604</v>
       </c>
       <c r="BG11" s="2">
-        <f>SUM(BG9:BG10)</f>
+        <f t="shared" si="1"/>
         <v>6706</v>
       </c>
       <c r="BH11" s="2">
-        <f>SUM(BH9:BH10)</f>
+        <f t="shared" si="1"/>
         <v>6869</v>
       </c>
       <c r="BI11" s="2">
-        <f>SUM(BI9:BI10)</f>
+        <f t="shared" si="1"/>
         <v>7024</v>
       </c>
       <c r="BJ11" s="2">
-        <f>SUM(BJ9:BJ10)</f>
+        <f t="shared" si="1"/>
         <v>7141</v>
       </c>
       <c r="BK11" s="2">
-        <f>SUM(BK9:BK10)</f>
+        <f t="shared" si="1"/>
         <v>7220</v>
       </c>
       <c r="BL11" s="2">
-        <f>SUM(BL9:BL10)</f>
+        <f t="shared" si="1"/>
         <v>7319</v>
       </c>
       <c r="BM11" s="2">
-        <f>SUM(BM9:BM10)</f>
+        <f t="shared" si="1"/>
         <v>7496</v>
       </c>
       <c r="BN11" s="2">
-        <f>SUM(BN9:BN10)</f>
+        <f t="shared" ref="BN11:CS11" si="2">SUM(BN9:BN10)</f>
         <v>7678</v>
       </c>
       <c r="BO11" s="2">
-        <f>SUM(BO9:BO10)</f>
+        <f t="shared" si="2"/>
         <v>7829</v>
       </c>
       <c r="BP11" s="2">
-        <f t="shared" ref="BP11:BU11" si="0">SUM(BP9:BP10)</f>
+        <f t="shared" ref="BP11:BU11" si="3">SUM(BP9:BP10)</f>
         <v>8014</v>
       </c>
       <c r="BQ11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8070</v>
       </c>
       <c r="BR11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8178</v>
       </c>
       <c r="BS11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8211</v>
       </c>
       <c r="BT11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8317</v>
       </c>
       <c r="BU11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8471</v>
       </c>
       <c r="BV11" s="2">
-        <f>SUM(BV9:BV10)</f>
+        <f t="shared" ref="BV11:CC11" si="4">SUM(BV9:BV10)</f>
         <v>8608</v>
       </c>
       <c r="BW11" s="2">
-        <f>SUM(BW9:BW10)</f>
+        <f t="shared" si="4"/>
         <v>8796</v>
       </c>
       <c r="BX11" s="2">
-        <f>SUM(BX9:BX10)</f>
+        <f t="shared" si="4"/>
         <v>8975</v>
       </c>
       <c r="BY11" s="2">
-        <f>SUM(BY9:BY10)</f>
+        <f t="shared" si="4"/>
         <v>9167</v>
       </c>
       <c r="BZ11" s="2">
-        <f>SUM(BZ9:BZ10)</f>
+        <f t="shared" si="4"/>
         <v>9375</v>
       </c>
       <c r="CA11" s="2">
-        <f>SUM(CA9:CA10)</f>
+        <f t="shared" si="4"/>
         <v>9542</v>
       </c>
       <c r="CB11" s="2">
-        <f>SUM(CB9:CB10)</f>
+        <f t="shared" si="4"/>
         <v>9744</v>
       </c>
       <c r="CC11" s="2">
-        <f>SUM(CC9:CC10)</f>
+        <f t="shared" si="4"/>
         <v>9925</v>
       </c>
     </row>
@@ -13168,323 +16297,323 @@
         <v>78</v>
       </c>
       <c r="B12" s="2">
-        <f>B2/$B$2*100-100</f>
+        <f t="shared" ref="B12:AG12" si="5">B2/$B$2*100-100</f>
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <f>C2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>-2.5419703838153396E-2</v>
       </c>
       <c r="D12" s="2">
-        <f>D2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>6.4441179028278839E-2</v>
       </c>
       <c r="E12" s="2">
-        <f>E2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>1.7421416323463461</v>
       </c>
       <c r="F12" s="2">
-        <f>F2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>2.5071855259314333</v>
       </c>
       <c r="G12" s="2">
-        <f>G2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>3.0534861785934879</v>
       </c>
       <c r="H12" s="2">
-        <f>H2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>3.1707735840221574</v>
       </c>
       <c r="I12" s="2">
-        <f>I2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>3.5607653560653745</v>
       </c>
       <c r="J12" s="2">
-        <f>J2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>4.383784012790116</v>
       </c>
       <c r="K12" s="2">
-        <f>K2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>3.6698025067395577</v>
       </c>
       <c r="L12" s="2">
-        <f>L2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>4.4854628281427296</v>
       </c>
       <c r="M12" s="2">
-        <f>M2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>4.9249561287128927</v>
       </c>
       <c r="N12" s="2">
-        <f>N2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>5.3468340204829303</v>
       </c>
       <c r="O12" s="2">
-        <f>O2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>5.864370271433387</v>
       </c>
       <c r="P12" s="2">
-        <f>P2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>6.4650780095034008</v>
       </c>
       <c r="Q12" s="2">
-        <f>Q2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>6.6713343783656001</v>
       </c>
       <c r="R12" s="2">
-        <f>R2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>7.0142774003224275</v>
       </c>
       <c r="S12" s="2">
-        <f>S2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>7.0142774003224275</v>
       </c>
       <c r="T12" s="2">
-        <f>T2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>7.2845289884964757</v>
       </c>
       <c r="U12" s="2">
-        <f>U2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>7.5657065897237601</v>
       </c>
       <c r="V12" s="2">
-        <f>V2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>7.5289149131158979</v>
       </c>
       <c r="W12" s="2">
-        <f>W2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.002524131995159</v>
       </c>
       <c r="X12" s="2">
-        <f>X2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.0034160514280757</v>
       </c>
       <c r="Y12" s="2">
-        <f>Y2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.4580719823578363</v>
       </c>
       <c r="Z12" s="2">
-        <f>Z2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6125970241108121</v>
       </c>
       <c r="AA12" s="2">
-        <f>AA2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6971063903797727</v>
       </c>
       <c r="AB12" s="2">
-        <f>AB2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6875182564758973</v>
       </c>
       <c r="AC12" s="2">
-        <f>AC2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6641053713617993</v>
       </c>
       <c r="AD12" s="2">
-        <f>AD2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6641053713617993</v>
       </c>
       <c r="AE12" s="2">
-        <f>AE2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6522874388756463</v>
       </c>
       <c r="AF12" s="2">
-        <f>AF2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6522874388756463</v>
       </c>
       <c r="AG12" s="2">
-        <f>AG2/$B$2*100-100</f>
+        <f t="shared" si="5"/>
         <v>8.6712407268251468</v>
       </c>
       <c r="AH12" s="2">
-        <f>AH2/$B$2*100-100</f>
+        <f t="shared" ref="AH12:BM12" si="6">AH2/$B$2*100-100</f>
         <v>8.8489556738339843</v>
       </c>
       <c r="AI12" s="2">
-        <f>AI2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>8.9247688256319861</v>
       </c>
       <c r="AJ12" s="2">
-        <f>AJ2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>8.9247688256319861</v>
       </c>
       <c r="AK12" s="2">
-        <f>AK2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>9.2759621023432999</v>
       </c>
       <c r="AL12" s="2">
-        <f>AL2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>9.2759621023432999</v>
       </c>
       <c r="AM12" s="2">
-        <f>AM2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>9.2759621023432999</v>
       </c>
       <c r="AN12" s="2">
-        <f>AN2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>9.2759621023432999</v>
       </c>
       <c r="AO12" s="2">
-        <f>AO2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>9.3589106096046351</v>
       </c>
       <c r="AP12" s="2">
-        <f>AP2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>9.5885798635809323</v>
       </c>
       <c r="AQ12" s="2">
-        <f>AQ2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>9.5885798635809323</v>
       </c>
       <c r="AR12" s="2">
-        <f>AR2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>10.013356493507942</v>
       </c>
       <c r="AS12" s="2">
-        <f>AS2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>10.095636061194597</v>
       </c>
       <c r="AT12" s="2">
-        <f>AT2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>10.558988206595288</v>
       </c>
       <c r="AU12" s="2">
-        <f>AU2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>10.558988206595288</v>
       </c>
       <c r="AV12" s="2">
-        <f>AV2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>10.558988206595288</v>
       </c>
       <c r="AW12" s="2">
-        <f>AW2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>10.538251079779968</v>
       </c>
       <c r="AX12" s="2">
-        <f>AX2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>10.582178111851164</v>
       </c>
       <c r="AY12" s="2">
-        <f>AY2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>11.751930448122621</v>
       </c>
       <c r="AZ12" s="2">
-        <f>AZ2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>11.731639281023746</v>
       </c>
       <c r="BA12" s="2">
-        <f>BA2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>11.731639281023746</v>
       </c>
       <c r="BB12" s="2">
-        <f>BB2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>11.760403682735344</v>
       </c>
       <c r="BC12" s="2">
-        <f>BC2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>12.116725496185921</v>
       </c>
       <c r="BD12" s="2">
-        <f>BD2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>12.295109382769454</v>
       </c>
       <c r="BE12" s="2">
-        <f>BE2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>12.967616635189344</v>
       </c>
       <c r="BF12" s="2">
-        <f>BF2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>12.967616635189344</v>
       </c>
       <c r="BG12" s="2">
-        <f>BG2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>13.123256576233459</v>
       </c>
       <c r="BH12" s="2">
-        <f>BH2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>13.699659509756486</v>
       </c>
       <c r="BI12" s="2">
-        <f>BI2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>13.776587560845627</v>
       </c>
       <c r="BJ12" s="2">
-        <f>BJ2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>13.812487318020558</v>
       </c>
       <c r="BK12" s="2">
-        <f>BK2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>13.812487318020558</v>
       </c>
       <c r="BL12" s="2">
-        <f>BL2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>13.875590617899491</v>
       </c>
       <c r="BM12" s="2">
-        <f>BM2/$B$2*100-100</f>
+        <f t="shared" si="6"/>
         <v>14.377741258632113</v>
       </c>
       <c r="BN12" s="2">
-        <f>BN2/$B$2*100-100</f>
+        <f t="shared" ref="BN12:CC12" si="7">BN2/$B$2*100-100</f>
         <v>14.457122088161782</v>
       </c>
       <c r="BO12" s="2">
-        <f>BO2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.457122088161782</v>
       </c>
       <c r="BP12" s="2">
-        <f>BP2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.703737811363496</v>
       </c>
       <c r="BQ12" s="2">
-        <f>BQ2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.703737811363496</v>
       </c>
       <c r="BR12" s="2">
-        <f>BR2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.643756229499786</v>
       </c>
       <c r="BS12" s="2">
-        <f>BS2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.643756229499786</v>
       </c>
       <c r="BT12" s="2">
-        <f>BT2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.70039311349008</v>
       </c>
       <c r="BU12" s="2">
-        <f>BU2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.719569381297788</v>
       </c>
       <c r="BV12" s="2">
-        <f>BV2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.757698937055011</v>
       </c>
       <c r="BW12" s="2">
-        <f>BW2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.766172171667733</v>
       </c>
       <c r="BX12" s="2">
-        <f>BX2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.766172171667733</v>
       </c>
       <c r="BY12" s="2">
-        <f>BY2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.816788599485804</v>
       </c>
       <c r="BZ12" s="2">
-        <f>BZ2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.816788599485804</v>
       </c>
       <c r="CA12" s="2">
-        <f>CA2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.828383552113735</v>
       </c>
       <c r="CB12" s="2">
-        <f>CB2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.730718374209246</v>
       </c>
       <c r="CC12" s="2">
-        <f>CC2/$B$2*100-100</f>
+        <f t="shared" si="7"/>
         <v>14.62056632424391</v>
       </c>
     </row>
@@ -13493,323 +16622,323 @@
         <v>80</v>
       </c>
       <c r="B13" s="2">
-        <f>B3/$B$3*100-100</f>
+        <f t="shared" ref="B13:AG13" si="8">B3/$B$3*100-100</f>
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f>C3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>10.717415859357061</v>
       </c>
       <c r="D13" s="2">
-        <f>D3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.3511995988057919</v>
       </c>
       <c r="E13" s="2">
-        <f>E3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.1538832881052485</v>
       </c>
       <c r="F13" s="2">
-        <f>F3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.7030084878821441</v>
       </c>
       <c r="G13" s="2">
-        <f>G3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.4930376869466642</v>
       </c>
       <c r="H13" s="2">
-        <f>H3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.2465094697768535</v>
       </c>
       <c r="I13" s="2">
-        <f>I3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.3721170024793565</v>
       </c>
       <c r="J13" s="2">
-        <f>J3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.3915064936282278</v>
       </c>
       <c r="K13" s="2">
-        <f>K3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.0207767982265068</v>
       </c>
       <c r="L13" s="2">
-        <f>L3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.1879238668372665</v>
       </c>
       <c r="M13" s="2">
-        <f>M3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.2704123957762192</v>
       </c>
       <c r="N13" s="2">
-        <f>N3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.1307443183682437</v>
       </c>
       <c r="O13" s="2">
-        <f>O3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.2741618743643386</v>
       </c>
       <c r="P13" s="2">
-        <f>P3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.2821295163641366</v>
       </c>
       <c r="Q13" s="2">
-        <f>Q3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.4761650333000631</v>
       </c>
       <c r="R13" s="2">
-        <f>R3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.7972141374090143</v>
       </c>
       <c r="S13" s="2">
-        <f>S3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.0596776385784068</v>
       </c>
       <c r="T13" s="2">
-        <f>T3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.1618509301050466</v>
       </c>
       <c r="U13" s="2">
-        <f>U3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.3521369684528253</v>
       </c>
       <c r="V13" s="2">
-        <f>V3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.6647497457384759</v>
       </c>
       <c r="W13" s="2">
-        <f>W3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.9267445620843375</v>
       </c>
       <c r="X13" s="2">
-        <f>X3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.678810290443991</v>
       </c>
       <c r="Y13" s="2">
-        <f>Y3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.7322403603248944</v>
       </c>
       <c r="Z13" s="2">
-        <f>Z3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.5925722829169189</v>
       </c>
       <c r="AA13" s="2">
-        <f>AA3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.1534146032817461</v>
       </c>
       <c r="AB13" s="2">
-        <f>AB3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>9.1787235837516477</v>
       </c>
       <c r="AC13" s="2">
-        <f>AC3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.9504740746990024</v>
       </c>
       <c r="AD13" s="2">
-        <f>AD3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.8707976547011356</v>
       </c>
       <c r="AE13" s="2">
-        <f>AE3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.7611254059982286</v>
       </c>
       <c r="AF13" s="2">
-        <f>AF3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.5736514765915501</v>
       </c>
       <c r="AG13" s="2">
-        <f>AG3/$B$3*100-100</f>
+        <f t="shared" si="8"/>
         <v>8.568964628356369</v>
       </c>
       <c r="AH13" s="2">
-        <f>AH3/$B$3*100-100</f>
+        <f t="shared" ref="AH13:BM13" si="9">AH3/$B$3*100-100</f>
         <v>8.2985334851872068</v>
       </c>
       <c r="AI13" s="2">
-        <f>AI3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>8.0318518206061924</v>
       </c>
       <c r="AJ13" s="2">
-        <f>AJ3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.8331294554351132</v>
       </c>
       <c r="AK13" s="2">
-        <f>AK3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.4642744993274306</v>
       </c>
       <c r="AL13" s="2">
-        <f>AL3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.0776095199261277</v>
       </c>
       <c r="AM13" s="2">
-        <f>AM3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.8732629368728482</v>
       </c>
       <c r="AN13" s="2">
-        <f>AN3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.7045364004068233</v>
       </c>
       <c r="AO13" s="2">
-        <f>AO3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.6314215679382187</v>
       </c>
       <c r="AP13" s="2">
-        <f>AP3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.4983150780594627</v>
       </c>
       <c r="AQ13" s="2">
-        <f>AQ3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.3989538954739089</v>
       </c>
       <c r="AR13" s="2">
-        <f>AR3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.1430519818337785</v>
       </c>
       <c r="AS13" s="2">
-        <f>AS3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.1252419585401441</v>
       </c>
       <c r="AT13" s="2">
-        <f>AT3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.2016375847733656</v>
       </c>
       <c r="AU13" s="2">
-        <f>AU3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.2517868608896521</v>
       </c>
       <c r="AV13" s="2">
-        <f>AV3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.5311230157056173</v>
       </c>
       <c r="AW13" s="2">
-        <f>AW3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.5508077782933327</v>
       </c>
       <c r="AX13" s="2">
-        <f>AX3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.5943954668803855</v>
       </c>
       <c r="AY13" s="2">
-        <f>AY3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.6122054901740341</v>
       </c>
       <c r="AZ13" s="2">
-        <f>AZ3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.5972075758214714</v>
       </c>
       <c r="BA13" s="2">
-        <f>BA3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.7345322291118919</v>
       </c>
       <c r="BB13" s="2">
-        <f>BB3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.8432671081677654</v>
       </c>
       <c r="BC13" s="2">
-        <f>BC3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>6.8920103298135302</v>
       </c>
       <c r="BD13" s="2">
-        <f>BD3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.0762034654555919</v>
       </c>
       <c r="BE13" s="2">
-        <f>BE3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.2032170526286023</v>
       </c>
       <c r="BF13" s="2">
-        <f>BF3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.3630385774478242</v>
       </c>
       <c r="BG13" s="2">
-        <f>BG3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.5570740943837507</v>
       </c>
       <c r="BH13" s="2">
-        <f>BH3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.7089279772031745</v>
       </c>
       <c r="BI13" s="2">
-        <f>BI3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.765170156025178</v>
       </c>
       <c r="BJ13" s="2">
-        <f>BJ3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.9015574396685651</v>
       </c>
       <c r="BK13" s="2">
-        <f>BK3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>7.9545188247259375</v>
       </c>
       <c r="BL13" s="2">
-        <f>BL3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>8.0079488946068551</v>
       </c>
       <c r="BM13" s="2">
-        <f>BM3/$B$3*100-100</f>
+        <f t="shared" si="9"/>
         <v>8.0102923187244386</v>
       </c>
       <c r="BN13" s="2">
-        <f>BN3/$B$3*100-100</f>
+        <f t="shared" ref="BN13:CC13" si="10">BN3/$B$3*100-100</f>
         <v>8.0632537037818253</v>
       </c>
       <c r="BO13" s="2">
-        <f>BO3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>8.233386294718386</v>
       </c>
       <c r="BP13" s="2">
-        <f>BP3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>8.3524322398916411</v>
       </c>
       <c r="BQ13" s="2">
-        <f>BQ3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>8.4325773447129819</v>
       </c>
       <c r="BR13" s="2">
-        <f>BR3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>8.53193852729855</v>
       </c>
       <c r="BS13" s="2">
-        <f>BS3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>8.5600596167095659</v>
       </c>
       <c r="BT13" s="2">
-        <f>BT3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>8.6622329082362057</v>
       </c>
       <c r="BU13" s="2">
-        <f>BU3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>8.9228216701115173</v>
       </c>
       <c r="BV13" s="2">
-        <f>BV3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>9.1951275525747178</v>
       </c>
       <c r="BW13" s="2">
-        <f>BW3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>9.5292998317421507</v>
       </c>
       <c r="BX13" s="2">
-        <f>BX3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>9.7964501811466818</v>
       </c>
       <c r="BY13" s="2">
-        <f>BY3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>10.136246678196329</v>
       </c>
       <c r="BZ13" s="2">
-        <f>BZ3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>10.357934599719727</v>
       </c>
       <c r="CA13" s="2">
-        <f>CA3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>10.472293696657815</v>
       </c>
       <c r="CB13" s="2">
-        <f>CB3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>10.636802069712175</v>
       </c>
       <c r="CC13" s="2">
-        <f>CC3/$B$3*100-100</f>
+        <f t="shared" si="10"/>
         <v>10.795217540060833</v>
       </c>
     </row>
@@ -14515,83 +17644,83 @@
         <v>273</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:L25" si="1">SUM(C23:C24)</f>
+        <f t="shared" ref="C25:L25" si="11">SUM(C23:C24)</f>
         <v>752</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>812</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1054</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1116</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1376</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1465</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1728</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>1817</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2080</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>2149</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25" si="2">SUM(M23:M24)</f>
+        <f t="shared" ref="M25" si="12">SUM(M23:M24)</f>
         <v>2418</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25" si="3">SUM(N23:N24)</f>
+        <f t="shared" ref="N25" si="13">SUM(N23:N24)</f>
         <v>2687</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25" si="4">SUM(O23:O24)</f>
+        <f t="shared" ref="O25" si="14">SUM(O23:O24)</f>
         <v>2956</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25" si="5">SUM(P23:P24)</f>
+        <f t="shared" ref="P25" si="15">SUM(P23:P24)</f>
         <v>3214</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25" si="6">SUM(Q23:Q24)</f>
+        <f t="shared" ref="Q25" si="16">SUM(Q23:Q24)</f>
         <v>3485</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25" si="7">SUM(R23:R24)</f>
+        <f t="shared" ref="R25" si="17">SUM(R23:R24)</f>
         <v>3755</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25" si="8">SUM(S23:S24)</f>
+        <f t="shared" ref="S25" si="18">SUM(S23:S24)</f>
         <v>4026</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T25" si="9">SUM(T23:T24)</f>
+        <f t="shared" ref="T25" si="19">SUM(T23:T24)</f>
         <v>4296</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:V25" si="10">SUM(U23:U24)</f>
+        <f t="shared" ref="U25:V25" si="20">SUM(U23:U24)</f>
         <v>4575</v>
       </c>
       <c r="V25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4645</v>
       </c>
       <c r="Y25" s="2"/>
@@ -14601,87 +17730,87 @@
         <v>78</v>
       </c>
       <c r="B26">
-        <f>B16/$B$16*100-100</f>
+        <f t="shared" ref="B26:U26" si="21">B16/$B$16*100-100</f>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>C16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>1.3355753222030131</v>
       </c>
       <c r="D26">
-        <f>D16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>1.8071889572098598</v>
       </c>
       <c r="E26">
-        <f>E16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>2.7116125737103687</v>
       </c>
       <c r="F26">
-        <f>F16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>2.7009996086469101</v>
       </c>
       <c r="G26">
-        <f>G16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>2.3524300373443765</v>
       </c>
       <c r="H26">
-        <f>H16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>2.2585716275645353</v>
       </c>
       <c r="I26">
-        <f>I16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>1.9680417089527111</v>
       </c>
       <c r="J26">
-        <f>J16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>2.0343727405992382</v>
       </c>
       <c r="K26">
-        <f>K16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>1.8118321294251132</v>
       </c>
       <c r="L26">
-        <f>L16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>1.6426879987264442</v>
       </c>
       <c r="M26">
-        <f>M16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>2.3613847266166488</v>
       </c>
       <c r="N26">
-        <f>N16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>2.4804489284222058</v>
       </c>
       <c r="O26">
-        <f>O16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>3.0014791820057241</v>
       </c>
       <c r="P26">
-        <f>P16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>3.3881890965050161</v>
       </c>
       <c r="Q26">
-        <f>Q16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>3.6137146041032508</v>
       </c>
       <c r="R26">
-        <f>R16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>3.8471998354990546</v>
       </c>
       <c r="S26">
-        <f>S16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>3.7513514947698212</v>
       </c>
       <c r="T26">
-        <f>T16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>3.7231608063200525</v>
       </c>
       <c r="U26">
-        <f>U16/$B$16*100-100</f>
+        <f t="shared" si="21"/>
         <v>3.9437114865447569</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26" si="11">V16/$B$16*100-100</f>
+        <f t="shared" ref="V26" si="22">V16/$B$16*100-100</f>
         <v>4.0093792078748294</v>
       </c>
       <c r="Y26" s="2"/>
@@ -14691,90 +17820,317 @@
         <v>80</v>
       </c>
       <c r="B27">
-        <f>B17/$B$17*100-100</f>
+        <f t="shared" ref="B27:U27" si="23">B17/$B$17*100-100</f>
         <v>0</v>
       </c>
       <c r="C27">
-        <f>C17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>22.360582687423886</v>
       </c>
       <c r="D27">
-        <f>D17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>24.634876278051038</v>
       </c>
       <c r="E27">
-        <f>E17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>28.174239777951897</v>
       </c>
       <c r="F27">
-        <f>F17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>29.328852090669642</v>
       </c>
       <c r="G27">
-        <f>G17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>31.759863296923214</v>
       </c>
       <c r="H27">
-        <f>H17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>34.008666672960544</v>
       </c>
       <c r="I27">
-        <f>I17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>35.591892223596375</v>
       </c>
       <c r="J27">
-        <f>J17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>35.749553921244654</v>
       </c>
       <c r="K27">
-        <f>K17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>35.988406672771731</v>
       </c>
       <c r="L27">
-        <f>L17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>36.988189533906706</v>
       </c>
       <c r="M27">
-        <f>M17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>39.938445852175619</v>
       </c>
       <c r="N27">
-        <f>N17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>39.999811183595625</v>
       </c>
       <c r="O27">
-        <f>O17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>41.195963105274586</v>
       </c>
       <c r="P27">
-        <f>P17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>41.053406719975811</v>
       </c>
       <c r="Q27">
-        <f>Q17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>41.811504583518229</v>
       </c>
       <c r="R27">
-        <f>R17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>42.292986414659708</v>
       </c>
       <c r="S27">
-        <f>S17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>42.663066567223353</v>
       </c>
       <c r="T27">
-        <f>T17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>43.155877382626983</v>
       </c>
       <c r="U27">
-        <f>U17/$B$17*100-100</f>
+        <f t="shared" si="23"/>
         <v>44.742879261350225</v>
       </c>
       <c r="V27">
-        <f t="shared" ref="V27" si="12">V17/$B$17*100-100</f>
+        <f t="shared" ref="V27" si="24">V17/$B$17*100-100</f>
         <v>44.857113185993626</v>
       </c>
       <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>692</v>
+      </c>
+      <c r="C29">
+        <v>1577</v>
+      </c>
+      <c r="D29">
+        <v>1677</v>
+      </c>
+      <c r="E29">
+        <v>2095</v>
+      </c>
+      <c r="F29">
+        <v>2203</v>
+      </c>
+      <c r="G29">
+        <v>2480</v>
+      </c>
+      <c r="H29">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>93</v>
+      </c>
+      <c r="C30">
+        <v>191</v>
+      </c>
+      <c r="D30">
+        <v>204</v>
+      </c>
+      <c r="E30">
+        <v>240</v>
+      </c>
+      <c r="F30">
+        <v>249</v>
+      </c>
+      <c r="G30">
+        <v>280</v>
+      </c>
+      <c r="H30">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1370</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3871</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4164</v>
+      </c>
+      <c r="E31" s="4">
+        <v>5404</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5777</v>
+      </c>
+      <c r="G31" s="4">
+        <v>6967</v>
+      </c>
+      <c r="H31" s="4">
+        <v>7340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="4">
+        <v>833</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2846</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3103</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4166</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4498</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5650</v>
+      </c>
+      <c r="H32" s="4">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>390.834</v>
+      </c>
+      <c r="C33">
+        <v>398.59899999999999</v>
+      </c>
+      <c r="D33">
+        <v>399.858</v>
+      </c>
+      <c r="E33">
+        <v>405.947</v>
+      </c>
+      <c r="F33">
+        <v>407.22699999999998</v>
+      </c>
+      <c r="G33">
+        <v>405.435</v>
+      </c>
+      <c r="H33" s="5">
+        <v>405.41399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>86.352599999999995</v>
+      </c>
+      <c r="C34">
+        <v>107.226</v>
+      </c>
+      <c r="D34">
+        <v>109.819</v>
+      </c>
+      <c r="E34">
+        <v>114.604</v>
+      </c>
+      <c r="F34">
+        <v>116.393</v>
+      </c>
+      <c r="G34" s="5">
+        <v>119.265</v>
+      </c>
+      <c r="H34">
+        <v>121.861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35">
+        <f>B33/$B$33*100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>C33/$B$33*100-100</f>
+        <v>1.9867769948366742</v>
+      </c>
+      <c r="D35">
+        <f>D33/$B$33*100-100</f>
+        <v>2.3089086415204463</v>
+      </c>
+      <c r="E35">
+        <f>E33/$B$33*100-100</f>
+        <v>3.8668590757201287</v>
+      </c>
+      <c r="F35">
+        <f>F33/$B$33*100-100</f>
+        <v>4.19436384756699</v>
+      </c>
+      <c r="G35">
+        <f>G33/$B$33*100-100</f>
+        <v>3.7358571669813756</v>
+      </c>
+      <c r="H35">
+        <f>H33/$B$33*100-100</f>
+        <v>3.7304840418182579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <f>B34/$B$34*100-100</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>C34/$B$34*100-100</f>
+        <v>24.172288964084473</v>
+      </c>
+      <c r="D36">
+        <f>D34/$B$34*100-100</f>
+        <v>27.175093743558392</v>
+      </c>
+      <c r="E36">
+        <f>E34/$B$34*100-100</f>
+        <v>32.716328170778866</v>
+      </c>
+      <c r="F36">
+        <f>F34/$B$34*100-100</f>
+        <v>34.78806660135308</v>
+      </c>
+      <c r="G36">
+        <f>G34/$B$34*100-100</f>
+        <v>38.11396530040787</v>
+      </c>
+      <c r="H36">
+        <f>H34/$B$34*100-100</f>
+        <v>41.120244208049343</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
